--- a/Data_LQ45_Baru.xlsx
+++ b/Data_LQ45_Baru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nafisyaaa/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB4ECD66-B763-0A41-A141-C8FCE30061E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33807DD4-D2AB-4942-904F-D62AC99E4FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$A$734</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$2:$A$733</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$B$2:$B$733</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3458,9 +3461,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3619,7 +3619,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3662,19 +3662,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -4840,12 +4837,12 @@
   <dimension ref="A1:G733"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
@@ -4857,7 +4854,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4903,7 +4900,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>1137</v>
       </c>
       <c r="B3" s="7">
@@ -4926,7 +4923,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>1136</v>
       </c>
       <c r="B4" s="7">
@@ -4949,7 +4946,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>1135</v>
       </c>
       <c r="B5" s="7">
@@ -4972,7 +4969,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>1134</v>
       </c>
       <c r="B6" s="7">
@@ -4995,7 +4992,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>1133</v>
       </c>
       <c r="B7" s="7">
@@ -5018,7 +5015,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>1132</v>
       </c>
       <c r="B8" s="7">
@@ -5041,7 +5038,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>1131</v>
       </c>
       <c r="B9" s="7">
@@ -5064,7 +5061,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>1130</v>
       </c>
       <c r="B10" s="7">
@@ -5087,7 +5084,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>1129</v>
       </c>
       <c r="B11" s="7">
@@ -5110,7 +5107,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>1127</v>
       </c>
       <c r="B12" s="7">
@@ -5133,7 +5130,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>1125</v>
       </c>
       <c r="B13" s="7">
@@ -5156,7 +5153,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>1124</v>
       </c>
       <c r="B14" s="7">
@@ -5179,7 +5176,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>1122</v>
       </c>
       <c r="B15" s="7">
@@ -5202,7 +5199,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>1120</v>
       </c>
       <c r="B16" s="7">
@@ -5225,7 +5222,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>1119</v>
       </c>
       <c r="B17" s="7">
@@ -5248,7 +5245,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>1118</v>
       </c>
       <c r="B18" s="7">
@@ -5271,7 +5268,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>1117</v>
       </c>
       <c r="B19" s="7">
@@ -5294,7 +5291,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>1116</v>
       </c>
       <c r="B20" s="7">
@@ -5317,7 +5314,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>1115</v>
       </c>
       <c r="B21" s="7">
@@ -5340,7 +5337,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>1114</v>
       </c>
       <c r="B22" s="7">
@@ -5363,7 +5360,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>1113</v>
       </c>
       <c r="B23" s="7">
@@ -5386,7 +5383,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>1111</v>
       </c>
       <c r="B24" s="7">
@@ -5409,7 +5406,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>1110</v>
       </c>
       <c r="B25" s="7">
@@ -5432,7 +5429,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>1109</v>
       </c>
       <c r="B26" s="12">
@@ -5455,7 +5452,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>1107</v>
       </c>
       <c r="B27" s="7">
@@ -5478,7 +5475,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>1106</v>
       </c>
       <c r="B28" s="12">
@@ -5501,7 +5498,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>1105</v>
       </c>
       <c r="B29" s="12">
@@ -5524,7 +5521,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>1103</v>
       </c>
       <c r="B30" s="7">
@@ -5547,7 +5544,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>1102</v>
       </c>
       <c r="B31" s="7">
@@ -5570,7 +5567,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>1101</v>
       </c>
       <c r="B32" s="7">
@@ -5593,7 +5590,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="B33" s="12">
@@ -5616,7 +5613,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>1098</v>
       </c>
       <c r="B34" s="12">
@@ -5639,7 +5636,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>1097</v>
       </c>
       <c r="B35" s="7">
@@ -5662,7 +5659,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>1096</v>
       </c>
       <c r="B36" s="7">
@@ -5685,7 +5682,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>1095</v>
       </c>
       <c r="B37" s="7">
@@ -5708,7 +5705,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>1093</v>
       </c>
       <c r="B38" s="7">
@@ -5731,7 +5728,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>1091</v>
       </c>
       <c r="B39" s="7">
@@ -5754,7 +5751,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>1090</v>
       </c>
       <c r="B40" s="7">
@@ -5777,7 +5774,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>1088</v>
       </c>
       <c r="B41" s="7">
@@ -5800,7 +5797,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>1087</v>
       </c>
       <c r="B42" s="7">
@@ -5823,7 +5820,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>1085</v>
       </c>
       <c r="B43" s="7">
@@ -5846,7 +5843,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>1083</v>
       </c>
       <c r="B44" s="7">
@@ -5869,7 +5866,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>1082</v>
       </c>
       <c r="B45" s="7">
@@ -5892,7 +5889,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>1080</v>
       </c>
       <c r="B46" s="7">
@@ -5915,7 +5912,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>1079</v>
       </c>
       <c r="B47" s="7">
@@ -5938,7 +5935,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>1077</v>
       </c>
       <c r="B48" s="7">
@@ -5961,7 +5958,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>1076</v>
       </c>
       <c r="B49" s="7">
@@ -5984,7 +5981,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="16" t="s">
         <v>1075</v>
       </c>
       <c r="B50" s="7">
@@ -6007,7 +6004,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="16" t="s">
         <v>1074</v>
       </c>
       <c r="B51" s="7">
@@ -6030,7 +6027,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="16" t="s">
         <v>1073</v>
       </c>
       <c r="B52" s="7">
@@ -6053,7 +6050,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="16" t="s">
         <v>1072</v>
       </c>
       <c r="B53" s="7">
@@ -6076,7 +6073,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="16" t="s">
         <v>1071</v>
       </c>
       <c r="B54" s="7">
@@ -6099,7 +6096,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="16" t="s">
         <v>1070</v>
       </c>
       <c r="B55" s="7">
@@ -6122,7 +6119,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="16" t="s">
         <v>1069</v>
       </c>
       <c r="B56" s="7">
@@ -6145,7 +6142,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
         <v>1068</v>
       </c>
       <c r="B57" s="7">
@@ -6168,7 +6165,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="16" t="s">
         <v>1067</v>
       </c>
       <c r="B58" s="7">
@@ -6191,7 +6188,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="16" t="s">
         <v>1065</v>
       </c>
       <c r="B59" s="7">
@@ -6214,7 +6211,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="16" t="s">
         <v>1064</v>
       </c>
       <c r="B60" s="7">
@@ -6237,7 +6234,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="16" t="s">
         <v>1063</v>
       </c>
       <c r="B61" s="7">
@@ -6260,7 +6257,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="16" t="s">
         <v>1062</v>
       </c>
       <c r="B62" s="7">
@@ -6283,7 +6280,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="16" t="s">
         <v>1061</v>
       </c>
       <c r="B63" s="7">
@@ -6306,7 +6303,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="16" t="s">
         <v>1060</v>
       </c>
       <c r="B64" s="7">
@@ -6329,7 +6326,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>1059</v>
       </c>
       <c r="B65" s="7">
@@ -6352,7 +6349,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="16" t="s">
         <v>1058</v>
       </c>
       <c r="B66" s="7">
@@ -6375,7 +6372,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="16" t="s">
         <v>1057</v>
       </c>
       <c r="B67" s="7">
@@ -6398,7 +6395,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="16" t="s">
         <v>1056</v>
       </c>
       <c r="B68" s="7">
@@ -6421,7 +6418,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B69" s="7">
@@ -6444,7 +6441,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="16" t="s">
         <v>1054</v>
       </c>
       <c r="B70" s="7">
@@ -6467,7 +6464,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="16" t="s">
         <v>1053</v>
       </c>
       <c r="B71" s="7">
@@ -6490,7 +6487,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="16" t="s">
         <v>1052</v>
       </c>
       <c r="B72" s="7">
@@ -6513,7 +6510,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="16" t="s">
         <v>1051</v>
       </c>
       <c r="B73" s="7">
@@ -6536,7 +6533,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="16" t="s">
         <v>1050</v>
       </c>
       <c r="B74" s="7">
@@ -6559,7 +6556,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="16" t="s">
         <v>1049</v>
       </c>
       <c r="B75" s="7">
@@ -6582,7 +6579,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="16" t="s">
         <v>1048</v>
       </c>
       <c r="B76" s="7">
@@ -6605,7 +6602,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="16" t="s">
         <v>1047</v>
       </c>
       <c r="B77" s="7">
@@ -6628,7 +6625,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="16" t="s">
         <v>1046</v>
       </c>
       <c r="B78" s="7">
@@ -6651,7 +6648,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="16" t="s">
         <v>1045</v>
       </c>
       <c r="B79" s="7">
@@ -6674,7 +6671,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="16" t="s">
         <v>1044</v>
       </c>
       <c r="B80" s="7">
@@ -6697,7 +6694,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="16" t="s">
         <v>1043</v>
       </c>
       <c r="B81" s="7">
@@ -6720,7 +6717,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="16" t="s">
         <v>1042</v>
       </c>
       <c r="B82" s="7">
@@ -6743,7 +6740,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="16" t="s">
         <v>1040</v>
       </c>
       <c r="B83" s="7">
@@ -6766,7 +6763,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="16" t="s">
         <v>1039</v>
       </c>
       <c r="B84" s="7">
@@ -6789,7 +6786,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="16" t="s">
         <v>1037</v>
       </c>
       <c r="B85" s="7">
@@ -6812,7 +6809,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="16" t="s">
         <v>1036</v>
       </c>
       <c r="B86" s="7">
@@ -6835,7 +6832,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="16" t="s">
         <v>1035</v>
       </c>
       <c r="B87" s="7">
@@ -6858,7 +6855,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="16" t="s">
         <v>1034</v>
       </c>
       <c r="B88" s="7">
@@ -6881,7 +6878,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="16" t="s">
         <v>1033</v>
       </c>
       <c r="B89" s="7">
@@ -6904,7 +6901,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="16" t="s">
         <v>1032</v>
       </c>
       <c r="B90" s="7">
@@ -6927,7 +6924,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="17" t="s">
+      <c r="A91" s="16" t="s">
         <v>1031</v>
       </c>
       <c r="B91" s="7">
@@ -6950,7 +6947,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="16" t="s">
         <v>1030</v>
       </c>
       <c r="B92" s="7">
@@ -6973,7 +6970,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="16" t="s">
         <v>1029</v>
       </c>
       <c r="B93" s="7">
@@ -6996,7 +6993,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="16" t="s">
         <v>1028</v>
       </c>
       <c r="B94" s="7">
@@ -7019,7 +7016,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="16" t="s">
         <v>1027</v>
       </c>
       <c r="B95" s="7">
@@ -7042,7 +7039,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="16" t="s">
         <v>1026</v>
       </c>
       <c r="B96" s="7">
@@ -7065,7 +7062,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="16" t="s">
         <v>1024</v>
       </c>
       <c r="B97" s="7">
@@ -7088,7 +7085,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="16" t="s">
         <v>1022</v>
       </c>
       <c r="B98" s="7">
@@ -7111,7 +7108,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="16" t="s">
         <v>1020</v>
       </c>
       <c r="B99" s="7">
@@ -7134,7 +7131,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="17" t="s">
+      <c r="A100" s="16" t="s">
         <v>1019</v>
       </c>
       <c r="B100" s="7">
@@ -7157,7 +7154,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="16" t="s">
         <v>1018</v>
       </c>
       <c r="B101" s="7">
@@ -7180,7 +7177,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="16" t="s">
         <v>1017</v>
       </c>
       <c r="B102" s="7">
@@ -7203,7 +7200,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="16" t="s">
         <v>1015</v>
       </c>
       <c r="B103" s="7">
@@ -7226,7 +7223,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="16" t="s">
         <v>1014</v>
       </c>
       <c r="B104" s="7">
@@ -7249,7 +7246,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="16" t="s">
         <v>1013</v>
       </c>
       <c r="B105" s="7">
@@ -7272,7 +7269,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="16" t="s">
         <v>1012</v>
       </c>
       <c r="B106" s="7">
@@ -7295,7 +7292,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="16" t="s">
         <v>1011</v>
       </c>
       <c r="B107" s="7">
@@ -7318,7 +7315,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="16" t="s">
         <v>1010</v>
       </c>
       <c r="B108" s="7">
@@ -7341,7 +7338,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="16" t="s">
         <v>1009</v>
       </c>
       <c r="B109" s="7">
@@ -7364,7 +7361,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="16" t="s">
         <v>1008</v>
       </c>
       <c r="B110" s="7">
@@ -7387,7 +7384,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="16" t="s">
         <v>1007</v>
       </c>
       <c r="B111" s="7">
@@ -7410,7 +7407,7 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="16" t="s">
         <v>1006</v>
       </c>
       <c r="B112" s="7">
@@ -7433,7 +7430,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="16" t="s">
         <v>1005</v>
       </c>
       <c r="B113" s="7">
@@ -7456,7 +7453,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="16" t="s">
         <v>1004</v>
       </c>
       <c r="B114" s="7">
@@ -7479,7 +7476,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="16" t="s">
         <v>1003</v>
       </c>
       <c r="B115" s="7">
@@ -7502,7 +7499,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="16" t="s">
         <v>1002</v>
       </c>
       <c r="B116" s="7">
@@ -7525,7 +7522,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="16" t="s">
         <v>1000</v>
       </c>
       <c r="B117" s="7">
@@ -7548,7 +7545,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="16" t="s">
         <v>999</v>
       </c>
       <c r="B118" s="7">
@@ -7571,7 +7568,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="16" t="s">
         <v>998</v>
       </c>
       <c r="B119" s="7">
@@ -7594,7 +7591,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="17" t="s">
+      <c r="A120" s="16" t="s">
         <v>996</v>
       </c>
       <c r="B120" s="7">
@@ -7617,7 +7614,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="17" t="s">
+      <c r="A121" s="16" t="s">
         <v>995</v>
       </c>
       <c r="B121" s="7">
@@ -7640,7 +7637,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="17" t="s">
+      <c r="A122" s="16" t="s">
         <v>994</v>
       </c>
       <c r="B122" s="7">
@@ -7663,7 +7660,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="16" t="s">
         <v>993</v>
       </c>
       <c r="B123" s="7">
@@ -7686,7 +7683,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="17" t="s">
+      <c r="A124" s="16" t="s">
         <v>992</v>
       </c>
       <c r="B124" s="7">
@@ -7709,7 +7706,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="17" t="s">
+      <c r="A125" s="16" t="s">
         <v>991</v>
       </c>
       <c r="B125" s="7">
@@ -7732,7 +7729,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="17" t="s">
+      <c r="A126" s="16" t="s">
         <v>990</v>
       </c>
       <c r="B126" s="7">
@@ -7755,7 +7752,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="17" t="s">
+      <c r="A127" s="16" t="s">
         <v>988</v>
       </c>
       <c r="B127" s="7">
@@ -7778,7 +7775,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="17" t="s">
+      <c r="A128" s="16" t="s">
         <v>987</v>
       </c>
       <c r="B128" s="7">
@@ -7801,7 +7798,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="17" t="s">
+      <c r="A129" s="16" t="s">
         <v>986</v>
       </c>
       <c r="B129" s="7">
@@ -7824,7 +7821,7 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="17" t="s">
+      <c r="A130" s="16" t="s">
         <v>985</v>
       </c>
       <c r="B130" s="7">
@@ -7847,7 +7844,7 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="17" t="s">
+      <c r="A131" s="16" t="s">
         <v>984</v>
       </c>
       <c r="B131" s="7">
@@ -7870,7 +7867,7 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="17" t="s">
+      <c r="A132" s="16" t="s">
         <v>982</v>
       </c>
       <c r="B132" s="7">
@@ -7893,7 +7890,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="17" t="s">
+      <c r="A133" s="16" t="s">
         <v>981</v>
       </c>
       <c r="B133" s="7">
@@ -7916,7 +7913,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="17" t="s">
+      <c r="A134" s="16" t="s">
         <v>979</v>
       </c>
       <c r="B134" s="7">
@@ -7939,7 +7936,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="16" t="s">
         <v>978</v>
       </c>
       <c r="B135" s="7">
@@ -7962,7 +7959,7 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="17" t="s">
+      <c r="A136" s="16" t="s">
         <v>976</v>
       </c>
       <c r="B136" s="7">
@@ -7985,7 +7982,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="17" t="s">
+      <c r="A137" s="16" t="s">
         <v>975</v>
       </c>
       <c r="B137" s="7">
@@ -8008,7 +8005,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="17" t="s">
+      <c r="A138" s="16" t="s">
         <v>974</v>
       </c>
       <c r="B138" s="7">
@@ -8031,7 +8028,7 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="17" t="s">
+      <c r="A139" s="16" t="s">
         <v>972</v>
       </c>
       <c r="B139" s="7">
@@ -8054,7 +8051,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="17" t="s">
+      <c r="A140" s="16" t="s">
         <v>971</v>
       </c>
       <c r="B140" s="7">
@@ -8077,7 +8074,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="17" t="s">
+      <c r="A141" s="16" t="s">
         <v>970</v>
       </c>
       <c r="B141" s="7">
@@ -8100,7 +8097,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="17" t="s">
+      <c r="A142" s="16" t="s">
         <v>969</v>
       </c>
       <c r="B142" s="7">
@@ -8123,7 +8120,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="17" t="s">
+      <c r="A143" s="16" t="s">
         <v>967</v>
       </c>
       <c r="B143" s="7">
@@ -8146,7 +8143,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="17" t="s">
+      <c r="A144" s="16" t="s">
         <v>965</v>
       </c>
       <c r="B144" s="7">
@@ -8169,7 +8166,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="17" t="s">
+      <c r="A145" s="16" t="s">
         <v>963</v>
       </c>
       <c r="B145" s="7">
@@ -8192,7 +8189,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="17" t="s">
+      <c r="A146" s="16" t="s">
         <v>961</v>
       </c>
       <c r="B146" s="7">
@@ -8215,7 +8212,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="17" t="s">
+      <c r="A147" s="16" t="s">
         <v>960</v>
       </c>
       <c r="B147" s="7">
@@ -8238,7 +8235,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="17" t="s">
+      <c r="A148" s="16" t="s">
         <v>959</v>
       </c>
       <c r="B148" s="7">
@@ -8261,7 +8258,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="17" t="s">
+      <c r="A149" s="16" t="s">
         <v>957</v>
       </c>
       <c r="B149" s="7">
@@ -8284,7 +8281,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="17" t="s">
+      <c r="A150" s="16" t="s">
         <v>956</v>
       </c>
       <c r="B150" s="7">
@@ -8307,7 +8304,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="17" t="s">
+      <c r="A151" s="16" t="s">
         <v>955</v>
       </c>
       <c r="B151" s="7">
@@ -8330,7 +8327,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="17" t="s">
+      <c r="A152" s="16" t="s">
         <v>954</v>
       </c>
       <c r="B152" s="7">
@@ -8353,7 +8350,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="17" t="s">
+      <c r="A153" s="16" t="s">
         <v>953</v>
       </c>
       <c r="B153" s="7">
@@ -8376,7 +8373,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="17" t="s">
+      <c r="A154" s="16" t="s">
         <v>952</v>
       </c>
       <c r="B154" s="7">
@@ -8399,7 +8396,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="17" t="s">
+      <c r="A155" s="16" t="s">
         <v>951</v>
       </c>
       <c r="B155" s="7">
@@ -8422,7 +8419,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="17" t="s">
+      <c r="A156" s="16" t="s">
         <v>950</v>
       </c>
       <c r="B156" s="7">
@@ -8445,7 +8442,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="17" t="s">
+      <c r="A157" s="16" t="s">
         <v>949</v>
       </c>
       <c r="B157" s="7">
@@ -8468,7 +8465,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="17" t="s">
+      <c r="A158" s="16" t="s">
         <v>948</v>
       </c>
       <c r="B158" s="7">
@@ -8491,7 +8488,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="17" t="s">
+      <c r="A159" s="16" t="s">
         <v>947</v>
       </c>
       <c r="B159" s="7">
@@ -8514,7 +8511,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="17" t="s">
+      <c r="A160" s="16" t="s">
         <v>945</v>
       </c>
       <c r="B160" s="7">
@@ -8537,7 +8534,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="17" t="s">
+      <c r="A161" s="16" t="s">
         <v>944</v>
       </c>
       <c r="B161" s="7">
@@ -8560,7 +8557,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="17" t="s">
+      <c r="A162" s="16" t="s">
         <v>943</v>
       </c>
       <c r="B162" s="7">
@@ -8583,7 +8580,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="17" t="s">
+      <c r="A163" s="16" t="s">
         <v>942</v>
       </c>
       <c r="B163" s="7">
@@ -8606,7 +8603,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="17" t="s">
+      <c r="A164" s="16" t="s">
         <v>940</v>
       </c>
       <c r="B164" s="7">
@@ -8629,7 +8626,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="17" t="s">
+      <c r="A165" s="16" t="s">
         <v>939</v>
       </c>
       <c r="B165" s="7">
@@ -8652,7 +8649,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="17" t="s">
+      <c r="A166" s="16" t="s">
         <v>937</v>
       </c>
       <c r="B166" s="7">
@@ -8675,7 +8672,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="17" t="s">
+      <c r="A167" s="16" t="s">
         <v>936</v>
       </c>
       <c r="B167" s="7">
@@ -8698,7 +8695,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="17" t="s">
+      <c r="A168" s="16" t="s">
         <v>935</v>
       </c>
       <c r="B168" s="7">
@@ -8721,7 +8718,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="17" t="s">
+      <c r="A169" s="16" t="s">
         <v>934</v>
       </c>
       <c r="B169" s="7">
@@ -8744,7 +8741,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="17" t="s">
+      <c r="A170" s="16" t="s">
         <v>932</v>
       </c>
       <c r="B170" s="7">
@@ -8767,7 +8764,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="17" t="s">
+      <c r="A171" s="16" t="s">
         <v>930</v>
       </c>
       <c r="B171" s="7">
@@ -8790,7 +8787,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="17" t="s">
+      <c r="A172" s="16" t="s">
         <v>929</v>
       </c>
       <c r="B172" s="7">
@@ -8813,7 +8810,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="17" t="s">
+      <c r="A173" s="16" t="s">
         <v>928</v>
       </c>
       <c r="B173" s="7">
@@ -8836,7 +8833,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="17" t="s">
+      <c r="A174" s="16" t="s">
         <v>926</v>
       </c>
       <c r="B174" s="7">
@@ -8859,7 +8856,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="17" t="s">
+      <c r="A175" s="16" t="s">
         <v>925</v>
       </c>
       <c r="B175" s="7">
@@ -8882,7 +8879,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="17" t="s">
+      <c r="A176" s="16" t="s">
         <v>924</v>
       </c>
       <c r="B176" s="7">
@@ -8905,7 +8902,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="17" t="s">
+      <c r="A177" s="16" t="s">
         <v>922</v>
       </c>
       <c r="B177" s="7">
@@ -8928,7 +8925,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="17" t="s">
+      <c r="A178" s="16" t="s">
         <v>920</v>
       </c>
       <c r="B178" s="7">
@@ -8951,7 +8948,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="17" t="s">
+      <c r="A179" s="16" t="s">
         <v>918</v>
       </c>
       <c r="B179" s="7">
@@ -8974,7 +8971,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="17" t="s">
+      <c r="A180" s="16" t="s">
         <v>917</v>
       </c>
       <c r="B180" s="7">
@@ -8997,7 +8994,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="17" t="s">
+      <c r="A181" s="16" t="s">
         <v>915</v>
       </c>
       <c r="B181" s="7">
@@ -9020,7 +9017,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="17" t="s">
+      <c r="A182" s="16" t="s">
         <v>913</v>
       </c>
       <c r="B182" s="7">
@@ -9043,7 +9040,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="17" t="s">
+      <c r="A183" s="16" t="s">
         <v>911</v>
       </c>
       <c r="B183" s="7">
@@ -9066,7 +9063,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="17" t="s">
+      <c r="A184" s="16" t="s">
         <v>910</v>
       </c>
       <c r="B184" s="7">
@@ -9089,7 +9086,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="17" t="s">
+      <c r="A185" s="16" t="s">
         <v>909</v>
       </c>
       <c r="B185" s="7">
@@ -9112,7 +9109,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="17" t="s">
+      <c r="A186" s="16" t="s">
         <v>907</v>
       </c>
       <c r="B186" s="7">
@@ -9135,7 +9132,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="17" t="s">
+      <c r="A187" s="16" t="s">
         <v>905</v>
       </c>
       <c r="B187" s="7">
@@ -9158,7 +9155,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="17" t="s">
+      <c r="A188" s="16" t="s">
         <v>903</v>
       </c>
       <c r="B188" s="7">
@@ -9181,7 +9178,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="17" t="s">
+      <c r="A189" s="16" t="s">
         <v>902</v>
       </c>
       <c r="B189" s="7">
@@ -9204,7 +9201,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="17" t="s">
+      <c r="A190" s="16" t="s">
         <v>900</v>
       </c>
       <c r="B190" s="7">
@@ -9227,7 +9224,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="17" t="s">
+      <c r="A191" s="16" t="s">
         <v>899</v>
       </c>
       <c r="B191" s="7">
@@ -9250,7 +9247,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="17" t="s">
+      <c r="A192" s="16" t="s">
         <v>898</v>
       </c>
       <c r="B192" s="7">
@@ -9273,7 +9270,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="17" t="s">
+      <c r="A193" s="16" t="s">
         <v>897</v>
       </c>
       <c r="B193" s="7">
@@ -9296,7 +9293,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="17" t="s">
+      <c r="A194" s="16" t="s">
         <v>895</v>
       </c>
       <c r="B194" s="7">
@@ -9319,7 +9316,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="17" t="s">
+      <c r="A195" s="16" t="s">
         <v>893</v>
       </c>
       <c r="B195" s="7">
@@ -9342,7 +9339,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="17" t="s">
+      <c r="A196" s="16" t="s">
         <v>892</v>
       </c>
       <c r="B196" s="7">
@@ -9365,7 +9362,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="17" t="s">
+      <c r="A197" s="16" t="s">
         <v>891</v>
       </c>
       <c r="B197" s="7">
@@ -9388,7 +9385,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="17" t="s">
+      <c r="A198" s="16" t="s">
         <v>890</v>
       </c>
       <c r="B198" s="7">
@@ -9411,7 +9408,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="17" t="s">
+      <c r="A199" s="16" t="s">
         <v>889</v>
       </c>
       <c r="B199" s="7">
@@ -9434,7 +9431,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="17" t="s">
+      <c r="A200" s="16" t="s">
         <v>887</v>
       </c>
       <c r="B200" s="7">
@@ -9457,7 +9454,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="17" t="s">
+      <c r="A201" s="16" t="s">
         <v>886</v>
       </c>
       <c r="B201" s="7">
@@ -9480,7 +9477,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="17" t="s">
+      <c r="A202" s="16" t="s">
         <v>885</v>
       </c>
       <c r="B202" s="7">
@@ -9503,7 +9500,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="17" t="s">
+      <c r="A203" s="16" t="s">
         <v>884</v>
       </c>
       <c r="B203" s="7">
@@ -9526,7 +9523,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="17" t="s">
+      <c r="A204" s="16" t="s">
         <v>883</v>
       </c>
       <c r="B204" s="7">
@@ -9549,7 +9546,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="17" t="s">
+      <c r="A205" s="16" t="s">
         <v>882</v>
       </c>
       <c r="B205" s="7">
@@ -9572,7 +9569,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="17" t="s">
+      <c r="A206" s="16" t="s">
         <v>881</v>
       </c>
       <c r="B206" s="7">
@@ -9595,7 +9592,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="17" t="s">
+      <c r="A207" s="16" t="s">
         <v>879</v>
       </c>
       <c r="B207" s="7">
@@ -9618,7 +9615,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="17" t="s">
+      <c r="A208" s="16" t="s">
         <v>878</v>
       </c>
       <c r="B208" s="7">
@@ -9641,7 +9638,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="17" t="s">
+      <c r="A209" s="16" t="s">
         <v>876</v>
       </c>
       <c r="B209" s="7">
@@ -9664,7 +9661,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="17" t="s">
+      <c r="A210" s="16" t="s">
         <v>875</v>
       </c>
       <c r="B210" s="7">
@@ -9687,7 +9684,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="17" t="s">
+      <c r="A211" s="16" t="s">
         <v>874</v>
       </c>
       <c r="B211" s="7">
@@ -9710,7 +9707,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="17" t="s">
+      <c r="A212" s="16" t="s">
         <v>872</v>
       </c>
       <c r="B212" s="7">
@@ -9733,7 +9730,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="17" t="s">
+      <c r="A213" s="16" t="s">
         <v>871</v>
       </c>
       <c r="B213" s="7">
@@ -9756,7 +9753,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="17" t="s">
+      <c r="A214" s="16" t="s">
         <v>870</v>
       </c>
       <c r="B214" s="7">
@@ -9779,7 +9776,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="17" t="s">
+      <c r="A215" s="16" t="s">
         <v>869</v>
       </c>
       <c r="B215" s="7">
@@ -9802,7 +9799,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="17" t="s">
+      <c r="A216" s="16" t="s">
         <v>868</v>
       </c>
       <c r="B216" s="7">
@@ -9825,7 +9822,7 @@
       </c>
     </row>
     <row r="217" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="17" t="s">
+      <c r="A217" s="16" t="s">
         <v>867</v>
       </c>
       <c r="B217" s="7">
@@ -9848,7 +9845,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="17" t="s">
+      <c r="A218" s="16" t="s">
         <v>866</v>
       </c>
       <c r="B218" s="7">
@@ -9871,7 +9868,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="17" t="s">
+      <c r="A219" s="16" t="s">
         <v>865</v>
       </c>
       <c r="B219" s="7">
@@ -9894,7 +9891,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="17" t="s">
+      <c r="A220" s="16" t="s">
         <v>864</v>
       </c>
       <c r="B220" s="7">
@@ -9917,7 +9914,7 @@
       </c>
     </row>
     <row r="221" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="17" t="s">
+      <c r="A221" s="16" t="s">
         <v>863</v>
       </c>
       <c r="B221" s="7">
@@ -9940,7 +9937,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="17" t="s">
+      <c r="A222" s="16" t="s">
         <v>862</v>
       </c>
       <c r="B222" s="7">
@@ -9963,7 +9960,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="17" t="s">
+      <c r="A223" s="16" t="s">
         <v>861</v>
       </c>
       <c r="B223" s="7">
@@ -9986,7 +9983,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="17" t="s">
+      <c r="A224" s="16" t="s">
         <v>860</v>
       </c>
       <c r="B224" s="7">
@@ -10009,7 +10006,7 @@
       </c>
     </row>
     <row r="225" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="17" t="s">
+      <c r="A225" s="16" t="s">
         <v>858</v>
       </c>
       <c r="B225" s="7">
@@ -10032,7 +10029,7 @@
       </c>
     </row>
     <row r="226" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="17" t="s">
+      <c r="A226" s="16" t="s">
         <v>856</v>
       </c>
       <c r="B226" s="7">
@@ -10055,7 +10052,7 @@
       </c>
     </row>
     <row r="227" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="17" t="s">
+      <c r="A227" s="16" t="s">
         <v>854</v>
       </c>
       <c r="B227" s="7">
@@ -10078,7 +10075,7 @@
       </c>
     </row>
     <row r="228" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="17" t="s">
+      <c r="A228" s="16" t="s">
         <v>853</v>
       </c>
       <c r="B228" s="7">
@@ -10101,7 +10098,7 @@
       </c>
     </row>
     <row r="229" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="17" t="s">
+      <c r="A229" s="16" t="s">
         <v>852</v>
       </c>
       <c r="B229" s="7">
@@ -10124,7 +10121,7 @@
       </c>
     </row>
     <row r="230" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="17" t="s">
+      <c r="A230" s="16" t="s">
         <v>850</v>
       </c>
       <c r="B230" s="7">
@@ -10147,7 +10144,7 @@
       </c>
     </row>
     <row r="231" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="17" t="s">
+      <c r="A231" s="16" t="s">
         <v>848</v>
       </c>
       <c r="B231" s="7">
@@ -10170,7 +10167,7 @@
       </c>
     </row>
     <row r="232" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="17" t="s">
+      <c r="A232" s="16" t="s">
         <v>846</v>
       </c>
       <c r="B232" s="7">
@@ -10193,7 +10190,7 @@
       </c>
     </row>
     <row r="233" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="17" t="s">
+      <c r="A233" s="16" t="s">
         <v>845</v>
       </c>
       <c r="B233" s="7">
@@ -10216,7 +10213,7 @@
       </c>
     </row>
     <row r="234" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="17" t="s">
+      <c r="A234" s="16" t="s">
         <v>843</v>
       </c>
       <c r="B234" s="7">
@@ -10239,7 +10236,7 @@
       </c>
     </row>
     <row r="235" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="17" t="s">
+      <c r="A235" s="16" t="s">
         <v>842</v>
       </c>
       <c r="B235" s="7">
@@ -10262,7 +10259,7 @@
       </c>
     </row>
     <row r="236" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="17" t="s">
+      <c r="A236" s="16" t="s">
         <v>840</v>
       </c>
       <c r="B236" s="7">
@@ -10285,7 +10282,7 @@
       </c>
     </row>
     <row r="237" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="17" t="s">
+      <c r="A237" s="16" t="s">
         <v>838</v>
       </c>
       <c r="B237" s="7">
@@ -10308,7 +10305,7 @@
       </c>
     </row>
     <row r="238" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="17" t="s">
+      <c r="A238" s="16" t="s">
         <v>837</v>
       </c>
       <c r="B238" s="7">
@@ -10331,7 +10328,7 @@
       </c>
     </row>
     <row r="239" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="17" t="s">
+      <c r="A239" s="16" t="s">
         <v>836</v>
       </c>
       <c r="B239" s="7">
@@ -10354,7 +10351,7 @@
       </c>
     </row>
     <row r="240" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="17" t="s">
+      <c r="A240" s="16" t="s">
         <v>835</v>
       </c>
       <c r="B240" s="7">
@@ -10377,7 +10374,7 @@
       </c>
     </row>
     <row r="241" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="17" t="s">
+      <c r="A241" s="16" t="s">
         <v>834</v>
       </c>
       <c r="B241" s="7">
@@ -10400,7 +10397,7 @@
       </c>
     </row>
     <row r="242" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="17" t="s">
+      <c r="A242" s="16" t="s">
         <v>833</v>
       </c>
       <c r="B242" s="7">
@@ -10423,7 +10420,7 @@
       </c>
     </row>
     <row r="243" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="17" t="s">
+      <c r="A243" s="16" t="s">
         <v>832</v>
       </c>
       <c r="B243" s="7">
@@ -10446,7 +10443,7 @@
       </c>
     </row>
     <row r="244" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="17" t="s">
+      <c r="A244" s="16" t="s">
         <v>831</v>
       </c>
       <c r="B244" s="7">
@@ -10467,7 +10464,7 @@
       </c>
     </row>
     <row r="245" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="17" t="s">
+      <c r="A245" s="16" t="s">
         <v>830</v>
       </c>
       <c r="B245" s="7">
@@ -10490,7 +10487,7 @@
       </c>
     </row>
     <row r="246" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="17" t="s">
+      <c r="A246" s="16" t="s">
         <v>829</v>
       </c>
       <c r="B246" s="7">
@@ -10513,7 +10510,7 @@
       </c>
     </row>
     <row r="247" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="17" t="s">
+      <c r="A247" s="16" t="s">
         <v>828</v>
       </c>
       <c r="B247" s="7">
@@ -10536,7 +10533,7 @@
       </c>
     </row>
     <row r="248" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="17" t="s">
+      <c r="A248" s="16" t="s">
         <v>826</v>
       </c>
       <c r="B248" s="7">
@@ -10559,7 +10556,7 @@
       </c>
     </row>
     <row r="249" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="17" t="s">
+      <c r="A249" s="16" t="s">
         <v>824</v>
       </c>
       <c r="B249" s="7">
@@ -10582,7 +10579,7 @@
       </c>
     </row>
     <row r="250" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="17" t="s">
+      <c r="A250" s="16" t="s">
         <v>823</v>
       </c>
       <c r="B250" s="7">
@@ -10605,7 +10602,7 @@
       </c>
     </row>
     <row r="251" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="17" t="s">
+      <c r="A251" s="16" t="s">
         <v>822</v>
       </c>
       <c r="B251" s="7">
@@ -10628,7 +10625,7 @@
       </c>
     </row>
     <row r="252" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="17" t="s">
+      <c r="A252" s="16" t="s">
         <v>821</v>
       </c>
       <c r="B252" s="7">
@@ -10651,7 +10648,7 @@
       </c>
     </row>
     <row r="253" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="17" t="s">
+      <c r="A253" s="16" t="s">
         <v>819</v>
       </c>
       <c r="B253" s="7">
@@ -10674,7 +10671,7 @@
       </c>
     </row>
     <row r="254" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="17" t="s">
+      <c r="A254" s="16" t="s">
         <v>817</v>
       </c>
       <c r="B254" s="7">
@@ -10697,7 +10694,7 @@
       </c>
     </row>
     <row r="255" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="17" t="s">
+      <c r="A255" s="16" t="s">
         <v>816</v>
       </c>
       <c r="B255" s="7">
@@ -10720,7 +10717,7 @@
       </c>
     </row>
     <row r="256" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="17" t="s">
+      <c r="A256" s="16" t="s">
         <v>815</v>
       </c>
       <c r="B256" s="7">
@@ -10743,7 +10740,7 @@
       </c>
     </row>
     <row r="257" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="17" t="s">
+      <c r="A257" s="16" t="s">
         <v>814</v>
       </c>
       <c r="B257" s="7">
@@ -10766,7 +10763,7 @@
       </c>
     </row>
     <row r="258" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="17" t="s">
+      <c r="A258" s="16" t="s">
         <v>813</v>
       </c>
       <c r="B258" s="7">
@@ -10789,7 +10786,7 @@
       </c>
     </row>
     <row r="259" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="17" t="s">
+      <c r="A259" s="16" t="s">
         <v>812</v>
       </c>
       <c r="B259" s="7">
@@ -10812,7 +10809,7 @@
       </c>
     </row>
     <row r="260" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="17" t="s">
+      <c r="A260" s="16" t="s">
         <v>810</v>
       </c>
       <c r="B260" s="7">
@@ -10835,7 +10832,7 @@
       </c>
     </row>
     <row r="261" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="17" t="s">
+      <c r="A261" s="16" t="s">
         <v>809</v>
       </c>
       <c r="B261" s="7">
@@ -10858,7 +10855,7 @@
       </c>
     </row>
     <row r="262" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="17" t="s">
+      <c r="A262" s="16" t="s">
         <v>808</v>
       </c>
       <c r="B262" s="7">
@@ -10881,7 +10878,7 @@
       </c>
     </row>
     <row r="263" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="17" t="s">
+      <c r="A263" s="16" t="s">
         <v>806</v>
       </c>
       <c r="B263" s="7">
@@ -10904,7 +10901,7 @@
       </c>
     </row>
     <row r="264" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="17" t="s">
+      <c r="A264" s="16" t="s">
         <v>804</v>
       </c>
       <c r="B264" s="7">
@@ -10927,7 +10924,7 @@
       </c>
     </row>
     <row r="265" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="17" t="s">
+      <c r="A265" s="16" t="s">
         <v>802</v>
       </c>
       <c r="B265" s="7">
@@ -10950,7 +10947,7 @@
       </c>
     </row>
     <row r="266" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="17" t="s">
+      <c r="A266" s="16" t="s">
         <v>800</v>
       </c>
       <c r="B266" s="7">
@@ -10973,7 +10970,7 @@
       </c>
     </row>
     <row r="267" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="17" t="s">
+      <c r="A267" s="16" t="s">
         <v>798</v>
       </c>
       <c r="B267" s="7">
@@ -10996,7 +10993,7 @@
       </c>
     </row>
     <row r="268" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="17" t="s">
+      <c r="A268" s="16" t="s">
         <v>796</v>
       </c>
       <c r="B268" s="7">
@@ -11019,7 +11016,7 @@
       </c>
     </row>
     <row r="269" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="17" t="s">
+      <c r="A269" s="16" t="s">
         <v>795</v>
       </c>
       <c r="B269" s="7">
@@ -11042,7 +11039,7 @@
       </c>
     </row>
     <row r="270" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="17" t="s">
+      <c r="A270" s="16" t="s">
         <v>794</v>
       </c>
       <c r="B270" s="7">
@@ -11065,7 +11062,7 @@
       </c>
     </row>
     <row r="271" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="17" t="s">
+      <c r="A271" s="16" t="s">
         <v>792</v>
       </c>
       <c r="B271" s="7">
@@ -11088,7 +11085,7 @@
       </c>
     </row>
     <row r="272" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="17" t="s">
+      <c r="A272" s="16" t="s">
         <v>790</v>
       </c>
       <c r="B272" s="7">
@@ -11111,7 +11108,7 @@
       </c>
     </row>
     <row r="273" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="17" t="s">
+      <c r="A273" s="16" t="s">
         <v>789</v>
       </c>
       <c r="B273" s="7">
@@ -11134,7 +11131,7 @@
       </c>
     </row>
     <row r="274" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="17" t="s">
+      <c r="A274" s="16" t="s">
         <v>787</v>
       </c>
       <c r="B274" s="7">
@@ -11157,7 +11154,7 @@
       </c>
     </row>
     <row r="275" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="17" t="s">
+      <c r="A275" s="16" t="s">
         <v>785</v>
       </c>
       <c r="B275" s="7">
@@ -11180,7 +11177,7 @@
       </c>
     </row>
     <row r="276" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A276" s="17" t="s">
+      <c r="A276" s="16" t="s">
         <v>784</v>
       </c>
       <c r="B276" s="7">
@@ -11203,7 +11200,7 @@
       </c>
     </row>
     <row r="277" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A277" s="17" t="s">
+      <c r="A277" s="16" t="s">
         <v>782</v>
       </c>
       <c r="B277" s="7">
@@ -11226,7 +11223,7 @@
       </c>
     </row>
     <row r="278" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A278" s="17" t="s">
+      <c r="A278" s="16" t="s">
         <v>780</v>
       </c>
       <c r="B278" s="7">
@@ -11249,7 +11246,7 @@
       </c>
     </row>
     <row r="279" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A279" s="17" t="s">
+      <c r="A279" s="16" t="s">
         <v>779</v>
       </c>
       <c r="B279" s="7">
@@ -11272,7 +11269,7 @@
       </c>
     </row>
     <row r="280" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="17" t="s">
+      <c r="A280" s="16" t="s">
         <v>778</v>
       </c>
       <c r="B280" s="7">
@@ -11295,7 +11292,7 @@
       </c>
     </row>
     <row r="281" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="17" t="s">
+      <c r="A281" s="16" t="s">
         <v>777</v>
       </c>
       <c r="B281" s="7">
@@ -11318,7 +11315,7 @@
       </c>
     </row>
     <row r="282" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A282" s="17" t="s">
+      <c r="A282" s="16" t="s">
         <v>776</v>
       </c>
       <c r="B282" s="7">
@@ -11341,7 +11338,7 @@
       </c>
     </row>
     <row r="283" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="17" t="s">
+      <c r="A283" s="16" t="s">
         <v>774</v>
       </c>
       <c r="B283" s="7">
@@ -11364,7 +11361,7 @@
       </c>
     </row>
     <row r="284" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="17" t="s">
+      <c r="A284" s="16" t="s">
         <v>773</v>
       </c>
       <c r="B284" s="7">
@@ -11387,7 +11384,7 @@
       </c>
     </row>
     <row r="285" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="17" t="s">
+      <c r="A285" s="16" t="s">
         <v>771</v>
       </c>
       <c r="B285" s="7">
@@ -11410,7 +11407,7 @@
       </c>
     </row>
     <row r="286" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="17" t="s">
+      <c r="A286" s="16" t="s">
         <v>769</v>
       </c>
       <c r="B286" s="7">
@@ -11433,7 +11430,7 @@
       </c>
     </row>
     <row r="287" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="17" t="s">
+      <c r="A287" s="16" t="s">
         <v>768</v>
       </c>
       <c r="B287" s="7">
@@ -11456,7 +11453,7 @@
       </c>
     </row>
     <row r="288" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="17" t="s">
+      <c r="A288" s="16" t="s">
         <v>766</v>
       </c>
       <c r="B288" s="7">
@@ -11479,7 +11476,7 @@
       </c>
     </row>
     <row r="289" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="17" t="s">
+      <c r="A289" s="16" t="s">
         <v>765</v>
       </c>
       <c r="B289" s="7">
@@ -11502,7 +11499,7 @@
       </c>
     </row>
     <row r="290" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="17" t="s">
+      <c r="A290" s="16" t="s">
         <v>763</v>
       </c>
       <c r="B290" s="7">
@@ -11525,7 +11522,7 @@
       </c>
     </row>
     <row r="291" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="17" t="s">
+      <c r="A291" s="16" t="s">
         <v>762</v>
       </c>
       <c r="B291" s="7">
@@ -11548,7 +11545,7 @@
       </c>
     </row>
     <row r="292" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A292" s="17" t="s">
+      <c r="A292" s="16" t="s">
         <v>761</v>
       </c>
       <c r="B292" s="7">
@@ -11571,7 +11568,7 @@
       </c>
     </row>
     <row r="293" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="17" t="s">
+      <c r="A293" s="16" t="s">
         <v>759</v>
       </c>
       <c r="B293" s="7">
@@ -11594,7 +11591,7 @@
       </c>
     </row>
     <row r="294" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="17" t="s">
+      <c r="A294" s="16" t="s">
         <v>757</v>
       </c>
       <c r="B294" s="7">
@@ -11617,7 +11614,7 @@
       </c>
     </row>
     <row r="295" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A295" s="17" t="s">
+      <c r="A295" s="16" t="s">
         <v>755</v>
       </c>
       <c r="B295" s="7">
@@ -11640,7 +11637,7 @@
       </c>
     </row>
     <row r="296" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="17" t="s">
+      <c r="A296" s="16" t="s">
         <v>754</v>
       </c>
       <c r="B296" s="7">
@@ -11663,7 +11660,7 @@
       </c>
     </row>
     <row r="297" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A297" s="17" t="s">
+      <c r="A297" s="16" t="s">
         <v>752</v>
       </c>
       <c r="B297" s="7">
@@ -11686,7 +11683,7 @@
       </c>
     </row>
     <row r="298" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A298" s="17" t="s">
+      <c r="A298" s="16" t="s">
         <v>751</v>
       </c>
       <c r="B298" s="7">
@@ -11709,7 +11706,7 @@
       </c>
     </row>
     <row r="299" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A299" s="17" t="s">
+      <c r="A299" s="16" t="s">
         <v>750</v>
       </c>
       <c r="B299" s="7">
@@ -11732,7 +11729,7 @@
       </c>
     </row>
     <row r="300" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="17" t="s">
+      <c r="A300" s="16" t="s">
         <v>748</v>
       </c>
       <c r="B300" s="7">
@@ -11755,7 +11752,7 @@
       </c>
     </row>
     <row r="301" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A301" s="17" t="s">
+      <c r="A301" s="16" t="s">
         <v>747</v>
       </c>
       <c r="B301" s="7">
@@ -11778,7 +11775,7 @@
       </c>
     </row>
     <row r="302" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="17" t="s">
+      <c r="A302" s="16" t="s">
         <v>745</v>
       </c>
       <c r="B302" s="7">
@@ -11801,7 +11798,7 @@
       </c>
     </row>
     <row r="303" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A303" s="17" t="s">
+      <c r="A303" s="16" t="s">
         <v>743</v>
       </c>
       <c r="B303" s="7">
@@ -11824,7 +11821,7 @@
       </c>
     </row>
     <row r="304" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A304" s="17" t="s">
+      <c r="A304" s="16" t="s">
         <v>741</v>
       </c>
       <c r="B304" s="7">
@@ -11847,7 +11844,7 @@
       </c>
     </row>
     <row r="305" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A305" s="17" t="s">
+      <c r="A305" s="16" t="s">
         <v>739</v>
       </c>
       <c r="B305" s="7">
@@ -11870,7 +11867,7 @@
       </c>
     </row>
     <row r="306" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A306" s="17" t="s">
+      <c r="A306" s="16" t="s">
         <v>738</v>
       </c>
       <c r="B306" s="7">
@@ -11893,7 +11890,7 @@
       </c>
     </row>
     <row r="307" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A307" s="17" t="s">
+      <c r="A307" s="16" t="s">
         <v>737</v>
       </c>
       <c r="B307" s="7">
@@ -11916,7 +11913,7 @@
       </c>
     </row>
     <row r="308" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A308" s="17" t="s">
+      <c r="A308" s="16" t="s">
         <v>736</v>
       </c>
       <c r="B308" s="7">
@@ -11939,7 +11936,7 @@
       </c>
     </row>
     <row r="309" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A309" s="17" t="s">
+      <c r="A309" s="16" t="s">
         <v>735</v>
       </c>
       <c r="B309" s="7">
@@ -11962,7 +11959,7 @@
       </c>
     </row>
     <row r="310" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A310" s="17" t="s">
+      <c r="A310" s="16" t="s">
         <v>733</v>
       </c>
       <c r="B310" s="7">
@@ -11985,7 +11982,7 @@
       </c>
     </row>
     <row r="311" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A311" s="17" t="s">
+      <c r="A311" s="16" t="s">
         <v>731</v>
       </c>
       <c r="B311" s="7">
@@ -12008,7 +12005,7 @@
       </c>
     </row>
     <row r="312" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A312" s="17" t="s">
+      <c r="A312" s="16" t="s">
         <v>729</v>
       </c>
       <c r="B312" s="7">
@@ -12031,7 +12028,7 @@
       </c>
     </row>
     <row r="313" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A313" s="17" t="s">
+      <c r="A313" s="16" t="s">
         <v>727</v>
       </c>
       <c r="B313" s="7">
@@ -12054,7 +12051,7 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A314" s="17" t="s">
+      <c r="A314" s="16" t="s">
         <v>726</v>
       </c>
       <c r="B314" s="7">
@@ -12077,7 +12074,7 @@
       </c>
     </row>
     <row r="315" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A315" s="17" t="s">
+      <c r="A315" s="16" t="s">
         <v>725</v>
       </c>
       <c r="B315" s="12">
@@ -12100,7 +12097,7 @@
       </c>
     </row>
     <row r="316" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A316" s="17" t="s">
+      <c r="A316" s="16" t="s">
         <v>724</v>
       </c>
       <c r="B316" s="12">
@@ -12123,7 +12120,7 @@
       </c>
     </row>
     <row r="317" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A317" s="17" t="s">
+      <c r="A317" s="16" t="s">
         <v>723</v>
       </c>
       <c r="B317" s="12">
@@ -12146,7 +12143,7 @@
       </c>
     </row>
     <row r="318" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A318" s="17" t="s">
+      <c r="A318" s="16" t="s">
         <v>722</v>
       </c>
       <c r="B318" s="12">
@@ -12169,7 +12166,7 @@
       </c>
     </row>
     <row r="319" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A319" s="17" t="s">
+      <c r="A319" s="16" t="s">
         <v>721</v>
       </c>
       <c r="B319" s="12">
@@ -12192,7 +12189,7 @@
       </c>
     </row>
     <row r="320" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A320" s="17" t="s">
+      <c r="A320" s="16" t="s">
         <v>720</v>
       </c>
       <c r="B320" s="12">
@@ -12215,7 +12212,7 @@
       </c>
     </row>
     <row r="321" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A321" s="17" t="s">
+      <c r="A321" s="16" t="s">
         <v>718</v>
       </c>
       <c r="B321" s="12">
@@ -12238,7 +12235,7 @@
       </c>
     </row>
     <row r="322" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A322" s="17" t="s">
+      <c r="A322" s="16" t="s">
         <v>717</v>
       </c>
       <c r="B322" s="12">
@@ -12261,7 +12258,7 @@
       </c>
     </row>
     <row r="323" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A323" s="17" t="s">
+      <c r="A323" s="16" t="s">
         <v>715</v>
       </c>
       <c r="B323" s="12">
@@ -12284,7 +12281,7 @@
       </c>
     </row>
     <row r="324" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A324" s="17" t="s">
+      <c r="A324" s="16" t="s">
         <v>713</v>
       </c>
       <c r="B324" s="12">
@@ -12307,7 +12304,7 @@
       </c>
     </row>
     <row r="325" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A325" s="17" t="s">
+      <c r="A325" s="16" t="s">
         <v>712</v>
       </c>
       <c r="B325" s="12">
@@ -12330,7 +12327,7 @@
       </c>
     </row>
     <row r="326" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A326" s="17" t="s">
+      <c r="A326" s="16" t="s">
         <v>711</v>
       </c>
       <c r="B326" s="12">
@@ -12353,7 +12350,7 @@
       </c>
     </row>
     <row r="327" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A327" s="17" t="s">
+      <c r="A327" s="16" t="s">
         <v>709</v>
       </c>
       <c r="B327" s="12">
@@ -12376,7 +12373,7 @@
       </c>
     </row>
     <row r="328" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A328" s="17" t="s">
+      <c r="A328" s="16" t="s">
         <v>708</v>
       </c>
       <c r="B328" s="12">
@@ -12399,7 +12396,7 @@
       </c>
     </row>
     <row r="329" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A329" s="17" t="s">
+      <c r="A329" s="16" t="s">
         <v>707</v>
       </c>
       <c r="B329" s="12">
@@ -12422,7 +12419,7 @@
       </c>
     </row>
     <row r="330" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A330" s="17" t="s">
+      <c r="A330" s="16" t="s">
         <v>705</v>
       </c>
       <c r="B330" s="12">
@@ -12445,7 +12442,7 @@
       </c>
     </row>
     <row r="331" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A331" s="17" t="s">
+      <c r="A331" s="16" t="s">
         <v>703</v>
       </c>
       <c r="B331" s="12">
@@ -12468,7 +12465,7 @@
       </c>
     </row>
     <row r="332" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A332" s="17" t="s">
+      <c r="A332" s="16" t="s">
         <v>701</v>
       </c>
       <c r="B332" s="12">
@@ -12491,7 +12488,7 @@
       </c>
     </row>
     <row r="333" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A333" s="17" t="s">
+      <c r="A333" s="16" t="s">
         <v>700</v>
       </c>
       <c r="B333" s="12">
@@ -12514,7 +12511,7 @@
       </c>
     </row>
     <row r="334" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A334" s="17" t="s">
+      <c r="A334" s="16" t="s">
         <v>699</v>
       </c>
       <c r="B334" s="12">
@@ -12537,7 +12534,7 @@
       </c>
     </row>
     <row r="335" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A335" s="17" t="s">
+      <c r="A335" s="16" t="s">
         <v>698</v>
       </c>
       <c r="B335" s="12">
@@ -12560,7 +12557,7 @@
       </c>
     </row>
     <row r="336" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A336" s="17" t="s">
+      <c r="A336" s="16" t="s">
         <v>697</v>
       </c>
       <c r="B336" s="12">
@@ -12583,7 +12580,7 @@
       </c>
     </row>
     <row r="337" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A337" s="17" t="s">
+      <c r="A337" s="16" t="s">
         <v>696</v>
       </c>
       <c r="B337" s="12">
@@ -12606,7 +12603,7 @@
       </c>
     </row>
     <row r="338" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A338" s="17" t="s">
+      <c r="A338" s="16" t="s">
         <v>695</v>
       </c>
       <c r="B338" s="12">
@@ -12629,7 +12626,7 @@
       </c>
     </row>
     <row r="339" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A339" s="17" t="s">
+      <c r="A339" s="16" t="s">
         <v>693</v>
       </c>
       <c r="B339" s="12">
@@ -12652,7 +12649,7 @@
       </c>
     </row>
     <row r="340" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A340" s="17" t="s">
+      <c r="A340" s="16" t="s">
         <v>691</v>
       </c>
       <c r="B340" s="12">
@@ -12675,7 +12672,7 @@
       </c>
     </row>
     <row r="341" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A341" s="17" t="s">
+      <c r="A341" s="16" t="s">
         <v>690</v>
       </c>
       <c r="B341" s="12">
@@ -12698,7 +12695,7 @@
       </c>
     </row>
     <row r="342" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A342" s="17" t="s">
+      <c r="A342" s="16" t="s">
         <v>689</v>
       </c>
       <c r="B342" s="12">
@@ -12721,7 +12718,7 @@
       </c>
     </row>
     <row r="343" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A343" s="17" t="s">
+      <c r="A343" s="16" t="s">
         <v>688</v>
       </c>
       <c r="B343" s="12">
@@ -12744,7 +12741,7 @@
       </c>
     </row>
     <row r="344" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A344" s="17" t="s">
+      <c r="A344" s="16" t="s">
         <v>687</v>
       </c>
       <c r="B344" s="12">
@@ -12767,7 +12764,7 @@
       </c>
     </row>
     <row r="345" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A345" s="17" t="s">
+      <c r="A345" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B345" s="12">
@@ -12790,7 +12787,7 @@
       </c>
     </row>
     <row r="346" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A346" s="17" t="s">
+      <c r="A346" s="16" t="s">
         <v>683</v>
       </c>
       <c r="B346" s="12">
@@ -12813,7 +12810,7 @@
       </c>
     </row>
     <row r="347" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A347" s="17" t="s">
+      <c r="A347" s="16" t="s">
         <v>681</v>
       </c>
       <c r="B347" s="12">
@@ -12836,7 +12833,7 @@
       </c>
     </row>
     <row r="348" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A348" s="17" t="s">
+      <c r="A348" s="16" t="s">
         <v>680</v>
       </c>
       <c r="B348" s="12">
@@ -12859,7 +12856,7 @@
       </c>
     </row>
     <row r="349" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A349" s="17" t="s">
+      <c r="A349" s="16" t="s">
         <v>678</v>
       </c>
       <c r="B349" s="12">
@@ -12882,7 +12879,7 @@
       </c>
     </row>
     <row r="350" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A350" s="17" t="s">
+      <c r="A350" s="16" t="s">
         <v>677</v>
       </c>
       <c r="B350" s="12">
@@ -12903,7 +12900,7 @@
       </c>
     </row>
     <row r="351" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A351" s="17" t="s">
+      <c r="A351" s="16" t="s">
         <v>676</v>
       </c>
       <c r="B351" s="7">
@@ -12926,7 +12923,7 @@
       </c>
     </row>
     <row r="352" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A352" s="17" t="s">
+      <c r="A352" s="16" t="s">
         <v>674</v>
       </c>
       <c r="B352" s="7">
@@ -12949,7 +12946,7 @@
       </c>
     </row>
     <row r="353" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A353" s="17" t="s">
+      <c r="A353" s="16" t="s">
         <v>672</v>
       </c>
       <c r="B353" s="12">
@@ -12972,7 +12969,7 @@
       </c>
     </row>
     <row r="354" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A354" s="17" t="s">
+      <c r="A354" s="16" t="s">
         <v>671</v>
       </c>
       <c r="B354" s="12">
@@ -12995,7 +12992,7 @@
       </c>
     </row>
     <row r="355" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A355" s="17" t="s">
+      <c r="A355" s="16" t="s">
         <v>669</v>
       </c>
       <c r="B355" s="12">
@@ -13018,7 +13015,7 @@
       </c>
     </row>
     <row r="356" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A356" s="17" t="s">
+      <c r="A356" s="16" t="s">
         <v>668</v>
       </c>
       <c r="B356" s="12">
@@ -13041,7 +13038,7 @@
       </c>
     </row>
     <row r="357" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A357" s="17" t="s">
+      <c r="A357" s="16" t="s">
         <v>667</v>
       </c>
       <c r="B357" s="12">
@@ -13064,7 +13061,7 @@
       </c>
     </row>
     <row r="358" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A358" s="17" t="s">
+      <c r="A358" s="16" t="s">
         <v>665</v>
       </c>
       <c r="B358" s="12">
@@ -13087,7 +13084,7 @@
       </c>
     </row>
     <row r="359" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A359" s="17" t="s">
+      <c r="A359" s="16" t="s">
         <v>663</v>
       </c>
       <c r="B359" s="12">
@@ -13110,7 +13107,7 @@
       </c>
     </row>
     <row r="360" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A360" s="17" t="s">
+      <c r="A360" s="16" t="s">
         <v>661</v>
       </c>
       <c r="B360" s="12">
@@ -13133,7 +13130,7 @@
       </c>
     </row>
     <row r="361" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A361" s="17" t="s">
+      <c r="A361" s="16" t="s">
         <v>660</v>
       </c>
       <c r="B361" s="12">
@@ -13156,7 +13153,7 @@
       </c>
     </row>
     <row r="362" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A362" s="17" t="s">
+      <c r="A362" s="16" t="s">
         <v>658</v>
       </c>
       <c r="B362" s="12">
@@ -13179,7 +13176,7 @@
       </c>
     </row>
     <row r="363" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A363" s="17" t="s">
+      <c r="A363" s="16" t="s">
         <v>657</v>
       </c>
       <c r="B363" s="12">
@@ -13202,7 +13199,7 @@
       </c>
     </row>
     <row r="364" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A364" s="17" t="s">
+      <c r="A364" s="16" t="s">
         <v>656</v>
       </c>
       <c r="B364" s="12">
@@ -13225,7 +13222,7 @@
       </c>
     </row>
     <row r="365" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A365" s="17" t="s">
+      <c r="A365" s="16" t="s">
         <v>655</v>
       </c>
       <c r="B365" s="12">
@@ -13248,7 +13245,7 @@
       </c>
     </row>
     <row r="366" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A366" s="17" t="s">
+      <c r="A366" s="16" t="s">
         <v>654</v>
       </c>
       <c r="B366" s="12">
@@ -13271,7 +13268,7 @@
       </c>
     </row>
     <row r="367" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A367" s="17" t="s">
+      <c r="A367" s="16" t="s">
         <v>653</v>
       </c>
       <c r="B367" s="12">
@@ -13294,7 +13291,7 @@
       </c>
     </row>
     <row r="368" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A368" s="17" t="s">
+      <c r="A368" s="16" t="s">
         <v>651</v>
       </c>
       <c r="B368" s="12">
@@ -13317,7 +13314,7 @@
       </c>
     </row>
     <row r="369" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A369" s="17" t="s">
+      <c r="A369" s="16" t="s">
         <v>649</v>
       </c>
       <c r="B369" s="12">
@@ -13340,7 +13337,7 @@
       </c>
     </row>
     <row r="370" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A370" s="17" t="s">
+      <c r="A370" s="16" t="s">
         <v>647</v>
       </c>
       <c r="B370" s="12">
@@ -13363,7 +13360,7 @@
       </c>
     </row>
     <row r="371" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A371" s="17" t="s">
+      <c r="A371" s="16" t="s">
         <v>645</v>
       </c>
       <c r="B371" s="12">
@@ -13386,7 +13383,7 @@
       </c>
     </row>
     <row r="372" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A372" s="17" t="s">
+      <c r="A372" s="16" t="s">
         <v>643</v>
       </c>
       <c r="B372" s="12">
@@ -13409,7 +13406,7 @@
       </c>
     </row>
     <row r="373" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A373" s="17" t="s">
+      <c r="A373" s="16" t="s">
         <v>641</v>
       </c>
       <c r="B373" s="12">
@@ -13432,7 +13429,7 @@
       </c>
     </row>
     <row r="374" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A374" s="17" t="s">
+      <c r="A374" s="16" t="s">
         <v>640</v>
       </c>
       <c r="B374" s="7">
@@ -13455,7 +13452,7 @@
       </c>
     </row>
     <row r="375" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A375" s="17" t="s">
+      <c r="A375" s="16" t="s">
         <v>638</v>
       </c>
       <c r="B375" s="12">
@@ -13478,7 +13475,7 @@
       </c>
     </row>
     <row r="376" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A376" s="17" t="s">
+      <c r="A376" s="16" t="s">
         <v>636</v>
       </c>
       <c r="B376" s="12">
@@ -13501,7 +13498,7 @@
       </c>
     </row>
     <row r="377" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A377" s="17" t="s">
+      <c r="A377" s="16" t="s">
         <v>635</v>
       </c>
       <c r="B377" s="12">
@@ -13524,7 +13521,7 @@
       </c>
     </row>
     <row r="378" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A378" s="17" t="s">
+      <c r="A378" s="16" t="s">
         <v>634</v>
       </c>
       <c r="B378" s="12">
@@ -13547,7 +13544,7 @@
       </c>
     </row>
     <row r="379" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A379" s="17" t="s">
+      <c r="A379" s="16" t="s">
         <v>632</v>
       </c>
       <c r="B379" s="12">
@@ -13570,7 +13567,7 @@
       </c>
     </row>
     <row r="380" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A380" s="17" t="s">
+      <c r="A380" s="16" t="s">
         <v>631</v>
       </c>
       <c r="B380" s="12">
@@ -13593,7 +13590,7 @@
       </c>
     </row>
     <row r="381" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A381" s="17" t="s">
+      <c r="A381" s="16" t="s">
         <v>630</v>
       </c>
       <c r="B381" s="12">
@@ -13616,7 +13613,7 @@
       </c>
     </row>
     <row r="382" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A382" s="17" t="s">
+      <c r="A382" s="16" t="s">
         <v>629</v>
       </c>
       <c r="B382" s="7">
@@ -13639,7 +13636,7 @@
       </c>
     </row>
     <row r="383" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A383" s="17" t="s">
+      <c r="A383" s="16" t="s">
         <v>628</v>
       </c>
       <c r="B383" s="7">
@@ -13662,7 +13659,7 @@
       </c>
     </row>
     <row r="384" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A384" s="17" t="s">
+      <c r="A384" s="16" t="s">
         <v>627</v>
       </c>
       <c r="B384" s="7">
@@ -13685,7 +13682,7 @@
       </c>
     </row>
     <row r="385" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A385" s="17" t="s">
+      <c r="A385" s="16" t="s">
         <v>626</v>
       </c>
       <c r="B385" s="7">
@@ -13708,7 +13705,7 @@
       </c>
     </row>
     <row r="386" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A386" s="17" t="s">
+      <c r="A386" s="16" t="s">
         <v>625</v>
       </c>
       <c r="B386" s="7">
@@ -13731,7 +13728,7 @@
       </c>
     </row>
     <row r="387" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A387" s="17" t="s">
+      <c r="A387" s="16" t="s">
         <v>624</v>
       </c>
       <c r="B387" s="7">
@@ -13754,7 +13751,7 @@
       </c>
     </row>
     <row r="388" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A388" s="17" t="s">
+      <c r="A388" s="16" t="s">
         <v>622</v>
       </c>
       <c r="B388" s="7">
@@ -13777,7 +13774,7 @@
       </c>
     </row>
     <row r="389" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A389" s="17" t="s">
+      <c r="A389" s="16" t="s">
         <v>621</v>
       </c>
       <c r="B389" s="7">
@@ -13800,7 +13797,7 @@
       </c>
     </row>
     <row r="390" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A390" s="17" t="s">
+      <c r="A390" s="16" t="s">
         <v>620</v>
       </c>
       <c r="B390" s="7">
@@ -13823,7 +13820,7 @@
       </c>
     </row>
     <row r="391" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A391" s="17" t="s">
+      <c r="A391" s="16" t="s">
         <v>619</v>
       </c>
       <c r="B391" s="7">
@@ -13846,7 +13843,7 @@
       </c>
     </row>
     <row r="392" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A392" s="17" t="s">
+      <c r="A392" s="16" t="s">
         <v>617</v>
       </c>
       <c r="B392" s="7">
@@ -13869,7 +13866,7 @@
       </c>
     </row>
     <row r="393" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A393" s="17" t="s">
+      <c r="A393" s="16" t="s">
         <v>615</v>
       </c>
       <c r="B393" s="7">
@@ -13892,7 +13889,7 @@
       </c>
     </row>
     <row r="394" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A394" s="17" t="s">
+      <c r="A394" s="16" t="s">
         <v>613</v>
       </c>
       <c r="B394" s="7">
@@ -13915,7 +13912,7 @@
       </c>
     </row>
     <row r="395" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A395" s="17" t="s">
+      <c r="A395" s="16" t="s">
         <v>611</v>
       </c>
       <c r="B395" s="7">
@@ -13938,7 +13935,7 @@
       </c>
     </row>
     <row r="396" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A396" s="17" t="s">
+      <c r="A396" s="16" t="s">
         <v>610</v>
       </c>
       <c r="B396" s="7">
@@ -13961,7 +13958,7 @@
       </c>
     </row>
     <row r="397" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A397" s="17" t="s">
+      <c r="A397" s="16" t="s">
         <v>608</v>
       </c>
       <c r="B397" s="7">
@@ -13984,7 +13981,7 @@
       </c>
     </row>
     <row r="398" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A398" s="17" t="s">
+      <c r="A398" s="16" t="s">
         <v>606</v>
       </c>
       <c r="B398" s="7">
@@ -14007,7 +14004,7 @@
       </c>
     </row>
     <row r="399" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A399" s="17" t="s">
+      <c r="A399" s="16" t="s">
         <v>604</v>
       </c>
       <c r="B399" s="7">
@@ -14030,7 +14027,7 @@
       </c>
     </row>
     <row r="400" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A400" s="17" t="s">
+      <c r="A400" s="16" t="s">
         <v>602</v>
       </c>
       <c r="B400" s="7">
@@ -14053,7 +14050,7 @@
       </c>
     </row>
     <row r="401" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A401" s="17" t="s">
+      <c r="A401" s="16" t="s">
         <v>600</v>
       </c>
       <c r="B401" s="7">
@@ -14076,7 +14073,7 @@
       </c>
     </row>
     <row r="402" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A402" s="17" t="s">
+      <c r="A402" s="16" t="s">
         <v>599</v>
       </c>
       <c r="B402" s="7">
@@ -14099,7 +14096,7 @@
       </c>
     </row>
     <row r="403" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A403" s="17" t="s">
+      <c r="A403" s="16" t="s">
         <v>598</v>
       </c>
       <c r="B403" s="7">
@@ -14122,7 +14119,7 @@
       </c>
     </row>
     <row r="404" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A404" s="17" t="s">
+      <c r="A404" s="16" t="s">
         <v>596</v>
       </c>
       <c r="B404" s="7">
@@ -14145,7 +14142,7 @@
       </c>
     </row>
     <row r="405" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A405" s="17" t="s">
+      <c r="A405" s="16" t="s">
         <v>595</v>
       </c>
       <c r="B405" s="7">
@@ -14168,7 +14165,7 @@
       </c>
     </row>
     <row r="406" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A406" s="17" t="s">
+      <c r="A406" s="16" t="s">
         <v>594</v>
       </c>
       <c r="B406" s="7">
@@ -14191,7 +14188,7 @@
       </c>
     </row>
     <row r="407" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A407" s="17" t="s">
+      <c r="A407" s="16" t="s">
         <v>593</v>
       </c>
       <c r="B407" s="7">
@@ -14214,7 +14211,7 @@
       </c>
     </row>
     <row r="408" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A408" s="17" t="s">
+      <c r="A408" s="16" t="s">
         <v>591</v>
       </c>
       <c r="B408" s="12">
@@ -14237,7 +14234,7 @@
       </c>
     </row>
     <row r="409" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A409" s="17" t="s">
+      <c r="A409" s="16" t="s">
         <v>589</v>
       </c>
       <c r="B409" s="12">
@@ -14260,7 +14257,7 @@
       </c>
     </row>
     <row r="410" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A410" s="17" t="s">
+      <c r="A410" s="16" t="s">
         <v>588</v>
       </c>
       <c r="B410" s="12">
@@ -14283,7 +14280,7 @@
       </c>
     </row>
     <row r="411" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A411" s="17" t="s">
+      <c r="A411" s="16" t="s">
         <v>586</v>
       </c>
       <c r="B411" s="12">
@@ -14306,7 +14303,7 @@
       </c>
     </row>
     <row r="412" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A412" s="17" t="s">
+      <c r="A412" s="16" t="s">
         <v>584</v>
       </c>
       <c r="B412" s="12">
@@ -14329,7 +14326,7 @@
       </c>
     </row>
     <row r="413" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A413" s="17" t="s">
+      <c r="A413" s="16" t="s">
         <v>582</v>
       </c>
       <c r="B413" s="12">
@@ -14352,7 +14349,7 @@
       </c>
     </row>
     <row r="414" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A414" s="17" t="s">
+      <c r="A414" s="16" t="s">
         <v>580</v>
       </c>
       <c r="B414" s="12">
@@ -14375,7 +14372,7 @@
       </c>
     </row>
     <row r="415" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A415" s="17" t="s">
+      <c r="A415" s="16" t="s">
         <v>579</v>
       </c>
       <c r="B415" s="12">
@@ -14398,7 +14395,7 @@
       </c>
     </row>
     <row r="416" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A416" s="17" t="s">
+      <c r="A416" s="16" t="s">
         <v>577</v>
       </c>
       <c r="B416" s="12">
@@ -14421,7 +14418,7 @@
       </c>
     </row>
     <row r="417" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A417" s="17" t="s">
+      <c r="A417" s="16" t="s">
         <v>575</v>
       </c>
       <c r="B417" s="12">
@@ -14444,7 +14441,7 @@
       </c>
     </row>
     <row r="418" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A418" s="17" t="s">
+      <c r="A418" s="16" t="s">
         <v>573</v>
       </c>
       <c r="B418" s="12">
@@ -14467,7 +14464,7 @@
       </c>
     </row>
     <row r="419" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A419" s="17" t="s">
+      <c r="A419" s="16" t="s">
         <v>572</v>
       </c>
       <c r="B419" s="12">
@@ -14490,7 +14487,7 @@
       </c>
     </row>
     <row r="420" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A420" s="17" t="s">
+      <c r="A420" s="16" t="s">
         <v>570</v>
       </c>
       <c r="B420" s="12">
@@ -14513,7 +14510,7 @@
       </c>
     </row>
     <row r="421" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A421" s="17" t="s">
+      <c r="A421" s="16" t="s">
         <v>568</v>
       </c>
       <c r="B421" s="12">
@@ -14536,7 +14533,7 @@
       </c>
     </row>
     <row r="422" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A422" s="17" t="s">
+      <c r="A422" s="16" t="s">
         <v>566</v>
       </c>
       <c r="B422" s="12">
@@ -14559,7 +14556,7 @@
       </c>
     </row>
     <row r="423" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A423" s="17" t="s">
+      <c r="A423" s="16" t="s">
         <v>565</v>
       </c>
       <c r="B423" s="12">
@@ -14582,7 +14579,7 @@
       </c>
     </row>
     <row r="424" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A424" s="17" t="s">
+      <c r="A424" s="16" t="s">
         <v>564</v>
       </c>
       <c r="B424" s="12">
@@ -14605,7 +14602,7 @@
       </c>
     </row>
     <row r="425" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A425" s="17" t="s">
+      <c r="A425" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B425" s="12">
@@ -14628,7 +14625,7 @@
       </c>
     </row>
     <row r="426" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A426" s="17" t="s">
+      <c r="A426" s="16" t="s">
         <v>560</v>
       </c>
       <c r="B426" s="12">
@@ -14651,7 +14648,7 @@
       </c>
     </row>
     <row r="427" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A427" s="17" t="s">
+      <c r="A427" s="16" t="s">
         <v>558</v>
       </c>
       <c r="B427" s="12">
@@ -14674,7 +14671,7 @@
       </c>
     </row>
     <row r="428" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A428" s="17" t="s">
+      <c r="A428" s="16" t="s">
         <v>556</v>
       </c>
       <c r="B428" s="12">
@@ -14697,7 +14694,7 @@
       </c>
     </row>
     <row r="429" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A429" s="17" t="s">
+      <c r="A429" s="16" t="s">
         <v>554</v>
       </c>
       <c r="B429" s="12">
@@ -14720,7 +14717,7 @@
       </c>
     </row>
     <row r="430" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A430" s="17" t="s">
+      <c r="A430" s="16" t="s">
         <v>553</v>
       </c>
       <c r="B430" s="12">
@@ -14743,7 +14740,7 @@
       </c>
     </row>
     <row r="431" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A431" s="17" t="s">
+      <c r="A431" s="16" t="s">
         <v>552</v>
       </c>
       <c r="B431" s="12">
@@ -14766,7 +14763,7 @@
       </c>
     </row>
     <row r="432" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A432" s="17" t="s">
+      <c r="A432" s="16" t="s">
         <v>551</v>
       </c>
       <c r="B432" s="12">
@@ -14789,7 +14786,7 @@
       </c>
     </row>
     <row r="433" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A433" s="17" t="s">
+      <c r="A433" s="16" t="s">
         <v>549</v>
       </c>
       <c r="B433" s="12">
@@ -14812,7 +14809,7 @@
       </c>
     </row>
     <row r="434" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A434" s="17" t="s">
+      <c r="A434" s="16" t="s">
         <v>548</v>
       </c>
       <c r="B434" s="12">
@@ -14835,7 +14832,7 @@
       </c>
     </row>
     <row r="435" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A435" s="17" t="s">
+      <c r="A435" s="16" t="s">
         <v>546</v>
       </c>
       <c r="B435" s="12">
@@ -14858,7 +14855,7 @@
       </c>
     </row>
     <row r="436" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A436" s="17" t="s">
+      <c r="A436" s="16" t="s">
         <v>544</v>
       </c>
       <c r="B436" s="12">
@@ -14881,7 +14878,7 @@
       </c>
     </row>
     <row r="437" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A437" s="17" t="s">
+      <c r="A437" s="16" t="s">
         <v>542</v>
       </c>
       <c r="B437" s="12">
@@ -14904,7 +14901,7 @@
       </c>
     </row>
     <row r="438" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A438" s="17" t="s">
+      <c r="A438" s="16" t="s">
         <v>540</v>
       </c>
       <c r="B438" s="12">
@@ -14927,7 +14924,7 @@
       </c>
     </row>
     <row r="439" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A439" s="17" t="s">
+      <c r="A439" s="16" t="s">
         <v>538</v>
       </c>
       <c r="B439" s="12">
@@ -14950,7 +14947,7 @@
       </c>
     </row>
     <row r="440" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A440" s="17" t="s">
+      <c r="A440" s="16" t="s">
         <v>537</v>
       </c>
       <c r="B440" s="12">
@@ -14973,7 +14970,7 @@
       </c>
     </row>
     <row r="441" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A441" s="17" t="s">
+      <c r="A441" s="16" t="s">
         <v>535</v>
       </c>
       <c r="B441" s="12">
@@ -14996,7 +14993,7 @@
       </c>
     </row>
     <row r="442" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A442" s="17" t="s">
+      <c r="A442" s="16" t="s">
         <v>533</v>
       </c>
       <c r="B442" s="12">
@@ -15019,7 +15016,7 @@
       </c>
     </row>
     <row r="443" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A443" s="17" t="s">
+      <c r="A443" s="16" t="s">
         <v>532</v>
       </c>
       <c r="B443" s="12">
@@ -15042,7 +15039,7 @@
       </c>
     </row>
     <row r="444" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A444" s="17" t="s">
+      <c r="A444" s="16" t="s">
         <v>530</v>
       </c>
       <c r="B444" s="12">
@@ -15065,7 +15062,7 @@
       </c>
     </row>
     <row r="445" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A445" s="17" t="s">
+      <c r="A445" s="16" t="s">
         <v>529</v>
       </c>
       <c r="B445" s="12">
@@ -15088,7 +15085,7 @@
       </c>
     </row>
     <row r="446" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A446" s="17" t="s">
+      <c r="A446" s="16" t="s">
         <v>527</v>
       </c>
       <c r="B446" s="12">
@@ -15111,7 +15108,7 @@
       </c>
     </row>
     <row r="447" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A447" s="17" t="s">
+      <c r="A447" s="16" t="s">
         <v>525</v>
       </c>
       <c r="B447" s="12">
@@ -15134,7 +15131,7 @@
       </c>
     </row>
     <row r="448" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A448" s="17" t="s">
+      <c r="A448" s="16" t="s">
         <v>524</v>
       </c>
       <c r="B448" s="12">
@@ -15157,7 +15154,7 @@
       </c>
     </row>
     <row r="449" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A449" s="17" t="s">
+      <c r="A449" s="16" t="s">
         <v>522</v>
       </c>
       <c r="B449" s="12">
@@ -15180,7 +15177,7 @@
       </c>
     </row>
     <row r="450" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A450" s="17" t="s">
+      <c r="A450" s="16" t="s">
         <v>520</v>
       </c>
       <c r="B450" s="12">
@@ -15203,7 +15200,7 @@
       </c>
     </row>
     <row r="451" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A451" s="17" t="s">
+      <c r="A451" s="16" t="s">
         <v>519</v>
       </c>
       <c r="B451" s="12">
@@ -15226,7 +15223,7 @@
       </c>
     </row>
     <row r="452" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A452" s="17" t="s">
+      <c r="A452" s="16" t="s">
         <v>518</v>
       </c>
       <c r="B452" s="12">
@@ -15249,7 +15246,7 @@
       </c>
     </row>
     <row r="453" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A453" s="17" t="s">
+      <c r="A453" s="16" t="s">
         <v>516</v>
       </c>
       <c r="B453" s="7">
@@ -15272,7 +15269,7 @@
       </c>
     </row>
     <row r="454" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A454" s="17" t="s">
+      <c r="A454" s="16" t="s">
         <v>515</v>
       </c>
       <c r="B454" s="7">
@@ -15295,7 +15292,7 @@
       </c>
     </row>
     <row r="455" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A455" s="17" t="s">
+      <c r="A455" s="16" t="s">
         <v>513</v>
       </c>
       <c r="B455" s="7">
@@ -15318,7 +15315,7 @@
       </c>
     </row>
     <row r="456" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A456" s="17" t="s">
+      <c r="A456" s="16" t="s">
         <v>511</v>
       </c>
       <c r="B456" s="7">
@@ -15341,7 +15338,7 @@
       </c>
     </row>
     <row r="457" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A457" s="17" t="s">
+      <c r="A457" s="16" t="s">
         <v>510</v>
       </c>
       <c r="B457" s="7">
@@ -15364,7 +15361,7 @@
       </c>
     </row>
     <row r="458" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A458" s="17" t="s">
+      <c r="A458" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B458" s="7">
@@ -15387,7 +15384,7 @@
       </c>
     </row>
     <row r="459" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A459" s="17" t="s">
+      <c r="A459" s="16" t="s">
         <v>508</v>
       </c>
       <c r="B459" s="7">
@@ -15410,7 +15407,7 @@
       </c>
     </row>
     <row r="460" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A460" s="17" t="s">
+      <c r="A460" s="16" t="s">
         <v>507</v>
       </c>
       <c r="B460" s="7">
@@ -15433,7 +15430,7 @@
       </c>
     </row>
     <row r="461" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A461" s="17" t="s">
+      <c r="A461" s="16" t="s">
         <v>506</v>
       </c>
       <c r="B461" s="7">
@@ -15456,7 +15453,7 @@
       </c>
     </row>
     <row r="462" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A462" s="17" t="s">
+      <c r="A462" s="16" t="s">
         <v>505</v>
       </c>
       <c r="B462" s="7">
@@ -15479,7 +15476,7 @@
       </c>
     </row>
     <row r="463" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A463" s="17" t="s">
+      <c r="A463" s="16" t="s">
         <v>503</v>
       </c>
       <c r="B463" s="12">
@@ -15502,7 +15499,7 @@
       </c>
     </row>
     <row r="464" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A464" s="17" t="s">
+      <c r="A464" s="16" t="s">
         <v>501</v>
       </c>
       <c r="B464" s="12">
@@ -15525,7 +15522,7 @@
       </c>
     </row>
     <row r="465" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A465" s="17" t="s">
+      <c r="A465" s="16" t="s">
         <v>500</v>
       </c>
       <c r="B465" s="12">
@@ -15548,7 +15545,7 @@
       </c>
     </row>
     <row r="466" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A466" s="17" t="s">
+      <c r="A466" s="16" t="s">
         <v>499</v>
       </c>
       <c r="B466" s="12">
@@ -15571,7 +15568,7 @@
       </c>
     </row>
     <row r="467" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A467" s="17" t="s">
+      <c r="A467" s="16" t="s">
         <v>497</v>
       </c>
       <c r="B467" s="12">
@@ -15594,7 +15591,7 @@
       </c>
     </row>
     <row r="468" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A468" s="17" t="s">
+      <c r="A468" s="16" t="s">
         <v>495</v>
       </c>
       <c r="B468" s="12">
@@ -15617,7 +15614,7 @@
       </c>
     </row>
     <row r="469" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A469" s="17" t="s">
+      <c r="A469" s="16" t="s">
         <v>494</v>
       </c>
       <c r="B469" s="12">
@@ -15640,7 +15637,7 @@
       </c>
     </row>
     <row r="470" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A470" s="17" t="s">
+      <c r="A470" s="16" t="s">
         <v>493</v>
       </c>
       <c r="B470" s="12">
@@ -15663,7 +15660,7 @@
       </c>
     </row>
     <row r="471" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A471" s="17" t="s">
+      <c r="A471" s="16" t="s">
         <v>491</v>
       </c>
       <c r="B471" s="7">
@@ -15686,7 +15683,7 @@
       </c>
     </row>
     <row r="472" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A472" s="17" t="s">
+      <c r="A472" s="16" t="s">
         <v>490</v>
       </c>
       <c r="B472" s="12">
@@ -15709,7 +15706,7 @@
       </c>
     </row>
     <row r="473" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A473" s="17" t="s">
+      <c r="A473" s="16" t="s">
         <v>488</v>
       </c>
       <c r="B473" s="12">
@@ -15732,7 +15729,7 @@
       </c>
     </row>
     <row r="474" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A474" s="17" t="s">
+      <c r="A474" s="16" t="s">
         <v>487</v>
       </c>
       <c r="B474" s="12">
@@ -15755,7 +15752,7 @@
       </c>
     </row>
     <row r="475" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A475" s="17" t="s">
+      <c r="A475" s="16" t="s">
         <v>486</v>
       </c>
       <c r="B475" s="12">
@@ -15778,7 +15775,7 @@
       </c>
     </row>
     <row r="476" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A476" s="17" t="s">
+      <c r="A476" s="16" t="s">
         <v>485</v>
       </c>
       <c r="B476" s="12">
@@ -15801,7 +15798,7 @@
       </c>
     </row>
     <row r="477" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A477" s="17" t="s">
+      <c r="A477" s="16" t="s">
         <v>483</v>
       </c>
       <c r="B477" s="7">
@@ -15824,7 +15821,7 @@
       </c>
     </row>
     <row r="478" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A478" s="17" t="s">
+      <c r="A478" s="16" t="s">
         <v>482</v>
       </c>
       <c r="B478" s="12">
@@ -15847,7 +15844,7 @@
       </c>
     </row>
     <row r="479" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A479" s="17" t="s">
+      <c r="A479" s="16" t="s">
         <v>480</v>
       </c>
       <c r="B479" s="12">
@@ -15870,7 +15867,7 @@
       </c>
     </row>
     <row r="480" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A480" s="17" t="s">
+      <c r="A480" s="16" t="s">
         <v>478</v>
       </c>
       <c r="B480" s="12">
@@ -15893,7 +15890,7 @@
       </c>
     </row>
     <row r="481" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A481" s="17" t="s">
+      <c r="A481" s="16" t="s">
         <v>477</v>
       </c>
       <c r="B481" s="12">
@@ -15916,7 +15913,7 @@
       </c>
     </row>
     <row r="482" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A482" s="17" t="s">
+      <c r="A482" s="16" t="s">
         <v>475</v>
       </c>
       <c r="B482" s="12">
@@ -15939,7 +15936,7 @@
       </c>
     </row>
     <row r="483" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A483" s="17" t="s">
+      <c r="A483" s="16" t="s">
         <v>473</v>
       </c>
       <c r="B483" s="12">
@@ -15962,7 +15959,7 @@
       </c>
     </row>
     <row r="484" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A484" s="17" t="s">
+      <c r="A484" s="16" t="s">
         <v>471</v>
       </c>
       <c r="B484" s="12">
@@ -15985,7 +15982,7 @@
       </c>
     </row>
     <row r="485" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A485" s="17" t="s">
+      <c r="A485" s="16" t="s">
         <v>470</v>
       </c>
       <c r="B485" s="7">
@@ -16008,7 +16005,7 @@
       </c>
     </row>
     <row r="486" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A486" s="17" t="s">
+      <c r="A486" s="16" t="s">
         <v>468</v>
       </c>
       <c r="B486" s="7">
@@ -16031,7 +16028,7 @@
       </c>
     </row>
     <row r="487" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A487" s="17" t="s">
+      <c r="A487" s="16" t="s">
         <v>466</v>
       </c>
       <c r="B487" s="12">
@@ -16054,7 +16051,7 @@
       </c>
     </row>
     <row r="488" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A488" s="17" t="s">
+      <c r="A488" s="16" t="s">
         <v>465</v>
       </c>
       <c r="B488" s="12">
@@ -16077,7 +16074,7 @@
       </c>
     </row>
     <row r="489" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A489" s="17" t="s">
+      <c r="A489" s="16" t="s">
         <v>463</v>
       </c>
       <c r="B489" s="7">
@@ -16100,7 +16097,7 @@
       </c>
     </row>
     <row r="490" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="17" t="s">
+      <c r="A490" s="16" t="s">
         <v>462</v>
       </c>
       <c r="B490" s="7">
@@ -16123,7 +16120,7 @@
       </c>
     </row>
     <row r="491" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A491" s="17" t="s">
+      <c r="A491" s="16" t="s">
         <v>460</v>
       </c>
       <c r="B491" s="12">
@@ -16146,7 +16143,7 @@
       </c>
     </row>
     <row r="492" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A492" s="17" t="s">
+      <c r="A492" s="16" t="s">
         <v>458</v>
       </c>
       <c r="B492" s="7">
@@ -16169,7 +16166,7 @@
       </c>
     </row>
     <row r="493" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A493" s="17" t="s">
+      <c r="A493" s="16" t="s">
         <v>457</v>
       </c>
       <c r="B493" s="7">
@@ -16192,7 +16189,7 @@
       </c>
     </row>
     <row r="494" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A494" s="17" t="s">
+      <c r="A494" s="16" t="s">
         <v>455</v>
       </c>
       <c r="B494" s="7">
@@ -16215,7 +16212,7 @@
       </c>
     </row>
     <row r="495" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A495" s="17" t="s">
+      <c r="A495" s="16" t="s">
         <v>453</v>
       </c>
       <c r="B495" s="7">
@@ -16238,7 +16235,7 @@
       </c>
     </row>
     <row r="496" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A496" s="17" t="s">
+      <c r="A496" s="16" t="s">
         <v>451</v>
       </c>
       <c r="B496" s="7">
@@ -16261,7 +16258,7 @@
       </c>
     </row>
     <row r="497" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A497" s="17" t="s">
+      <c r="A497" s="16" t="s">
         <v>450</v>
       </c>
       <c r="B497" s="7">
@@ -16284,7 +16281,7 @@
       </c>
     </row>
     <row r="498" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A498" s="17" t="s">
+      <c r="A498" s="16" t="s">
         <v>448</v>
       </c>
       <c r="B498" s="7">
@@ -16307,7 +16304,7 @@
       </c>
     </row>
     <row r="499" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A499" s="17" t="s">
+      <c r="A499" s="16" t="s">
         <v>446</v>
       </c>
       <c r="B499" s="7">
@@ -16330,7 +16327,7 @@
       </c>
     </row>
     <row r="500" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A500" s="17" t="s">
+      <c r="A500" s="16" t="s">
         <v>444</v>
       </c>
       <c r="B500" s="7">
@@ -16353,7 +16350,7 @@
       </c>
     </row>
     <row r="501" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A501" s="17" t="s">
+      <c r="A501" s="16" t="s">
         <v>442</v>
       </c>
       <c r="B501" s="7">
@@ -16376,7 +16373,7 @@
       </c>
     </row>
     <row r="502" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A502" s="17" t="s">
+      <c r="A502" s="16" t="s">
         <v>440</v>
       </c>
       <c r="B502" s="7">
@@ -16399,7 +16396,7 @@
       </c>
     </row>
     <row r="503" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A503" s="17" t="s">
+      <c r="A503" s="16" t="s">
         <v>438</v>
       </c>
       <c r="B503" s="7">
@@ -16422,7 +16419,7 @@
       </c>
     </row>
     <row r="504" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A504" s="17" t="s">
+      <c r="A504" s="16" t="s">
         <v>437</v>
       </c>
       <c r="B504" s="7">
@@ -16445,7 +16442,7 @@
       </c>
     </row>
     <row r="505" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A505" s="17" t="s">
+      <c r="A505" s="16" t="s">
         <v>435</v>
       </c>
       <c r="B505" s="7">
@@ -16468,7 +16465,7 @@
       </c>
     </row>
     <row r="506" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A506" s="17" t="s">
+      <c r="A506" s="16" t="s">
         <v>434</v>
       </c>
       <c r="B506" s="7">
@@ -16491,7 +16488,7 @@
       </c>
     </row>
     <row r="507" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A507" s="17" t="s">
+      <c r="A507" s="16" t="s">
         <v>432</v>
       </c>
       <c r="B507" s="7">
@@ -16514,7 +16511,7 @@
       </c>
     </row>
     <row r="508" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A508" s="17" t="s">
+      <c r="A508" s="16" t="s">
         <v>430</v>
       </c>
       <c r="B508" s="7">
@@ -16537,7 +16534,7 @@
       </c>
     </row>
     <row r="509" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A509" s="17" t="s">
+      <c r="A509" s="16" t="s">
         <v>429</v>
       </c>
       <c r="B509" s="7">
@@ -16560,7 +16557,7 @@
       </c>
     </row>
     <row r="510" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A510" s="17" t="s">
+      <c r="A510" s="16" t="s">
         <v>427</v>
       </c>
       <c r="B510" s="7">
@@ -16583,7 +16580,7 @@
       </c>
     </row>
     <row r="511" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A511" s="17" t="s">
+      <c r="A511" s="16" t="s">
         <v>425</v>
       </c>
       <c r="B511" s="7">
@@ -16606,7 +16603,7 @@
       </c>
     </row>
     <row r="512" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A512" s="17" t="s">
+      <c r="A512" s="16" t="s">
         <v>423</v>
       </c>
       <c r="B512" s="7">
@@ -16629,7 +16626,7 @@
       </c>
     </row>
     <row r="513" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A513" s="17" t="s">
+      <c r="A513" s="16" t="s">
         <v>421</v>
       </c>
       <c r="B513" s="7">
@@ -16652,7 +16649,7 @@
       </c>
     </row>
     <row r="514" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A514" s="17" t="s">
+      <c r="A514" s="16" t="s">
         <v>419</v>
       </c>
       <c r="B514" s="7">
@@ -16675,7 +16672,7 @@
       </c>
     </row>
     <row r="515" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A515" s="17" t="s">
+      <c r="A515" s="16" t="s">
         <v>417</v>
       </c>
       <c r="B515" s="7">
@@ -16698,7 +16695,7 @@
       </c>
     </row>
     <row r="516" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A516" s="17" t="s">
+      <c r="A516" s="16" t="s">
         <v>416</v>
       </c>
       <c r="B516" s="7">
@@ -16721,7 +16718,7 @@
       </c>
     </row>
     <row r="517" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A517" s="17" t="s">
+      <c r="A517" s="16" t="s">
         <v>415</v>
       </c>
       <c r="B517" s="7">
@@ -16744,7 +16741,7 @@
       </c>
     </row>
     <row r="518" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A518" s="17" t="s">
+      <c r="A518" s="16" t="s">
         <v>413</v>
       </c>
       <c r="B518" s="7">
@@ -16767,7 +16764,7 @@
       </c>
     </row>
     <row r="519" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A519" s="17" t="s">
+      <c r="A519" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B519" s="7">
@@ -16790,7 +16787,7 @@
       </c>
     </row>
     <row r="520" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A520" s="17" t="s">
+      <c r="A520" s="16" t="s">
         <v>409</v>
       </c>
       <c r="B520" s="7">
@@ -16813,7 +16810,7 @@
       </c>
     </row>
     <row r="521" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A521" s="17" t="s">
+      <c r="A521" s="16" t="s">
         <v>407</v>
       </c>
       <c r="B521" s="7">
@@ -16836,7 +16833,7 @@
       </c>
     </row>
     <row r="522" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A522" s="17" t="s">
+      <c r="A522" s="16" t="s">
         <v>406</v>
       </c>
       <c r="B522" s="7">
@@ -16859,7 +16856,7 @@
       </c>
     </row>
     <row r="523" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A523" s="17" t="s">
+      <c r="A523" s="16" t="s">
         <v>404</v>
       </c>
       <c r="B523" s="7">
@@ -16882,7 +16879,7 @@
       </c>
     </row>
     <row r="524" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A524" s="17" t="s">
+      <c r="A524" s="16" t="s">
         <v>402</v>
       </c>
       <c r="B524" s="7">
@@ -16905,7 +16902,7 @@
       </c>
     </row>
     <row r="525" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A525" s="17" t="s">
+      <c r="A525" s="16" t="s">
         <v>400</v>
       </c>
       <c r="B525" s="7">
@@ -16928,7 +16925,7 @@
       </c>
     </row>
     <row r="526" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A526" s="17" t="s">
+      <c r="A526" s="16" t="s">
         <v>398</v>
       </c>
       <c r="B526" s="7">
@@ -16951,7 +16948,7 @@
       </c>
     </row>
     <row r="527" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A527" s="17" t="s">
+      <c r="A527" s="16" t="s">
         <v>396</v>
       </c>
       <c r="B527" s="7">
@@ -16974,7 +16971,7 @@
       </c>
     </row>
     <row r="528" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A528" s="17" t="s">
+      <c r="A528" s="16" t="s">
         <v>394</v>
       </c>
       <c r="B528" s="7">
@@ -16997,7 +16994,7 @@
       </c>
     </row>
     <row r="529" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A529" s="17" t="s">
+      <c r="A529" s="16" t="s">
         <v>392</v>
       </c>
       <c r="B529" s="7">
@@ -17020,7 +17017,7 @@
       </c>
     </row>
     <row r="530" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A530" s="17" t="s">
+      <c r="A530" s="16" t="s">
         <v>390</v>
       </c>
       <c r="B530" s="7">
@@ -17043,7 +17040,7 @@
       </c>
     </row>
     <row r="531" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A531" s="17" t="s">
+      <c r="A531" s="16" t="s">
         <v>389</v>
       </c>
       <c r="B531" s="7">
@@ -17066,7 +17063,7 @@
       </c>
     </row>
     <row r="532" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A532" s="17" t="s">
+      <c r="A532" s="16" t="s">
         <v>387</v>
       </c>
       <c r="B532" s="7">
@@ -17089,7 +17086,7 @@
       </c>
     </row>
     <row r="533" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A533" s="17" t="s">
+      <c r="A533" s="16" t="s">
         <v>386</v>
       </c>
       <c r="B533" s="7">
@@ -17112,7 +17109,7 @@
       </c>
     </row>
     <row r="534" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A534" s="17" t="s">
+      <c r="A534" s="16" t="s">
         <v>384</v>
       </c>
       <c r="B534" s="7">
@@ -17135,7 +17132,7 @@
       </c>
     </row>
     <row r="535" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A535" s="17" t="s">
+      <c r="A535" s="16" t="s">
         <v>382</v>
       </c>
       <c r="B535" s="7">
@@ -17158,7 +17155,7 @@
       </c>
     </row>
     <row r="536" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A536" s="17" t="s">
+      <c r="A536" s="16" t="s">
         <v>380</v>
       </c>
       <c r="B536" s="7">
@@ -17181,7 +17178,7 @@
       </c>
     </row>
     <row r="537" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A537" s="17" t="s">
+      <c r="A537" s="16" t="s">
         <v>378</v>
       </c>
       <c r="B537" s="7">
@@ -17204,7 +17201,7 @@
       </c>
     </row>
     <row r="538" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A538" s="17" t="s">
+      <c r="A538" s="16" t="s">
         <v>376</v>
       </c>
       <c r="B538" s="7">
@@ -17227,7 +17224,7 @@
       </c>
     </row>
     <row r="539" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A539" s="17" t="s">
+      <c r="A539" s="16" t="s">
         <v>374</v>
       </c>
       <c r="B539" s="7">
@@ -17250,7 +17247,7 @@
       </c>
     </row>
     <row r="540" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A540" s="17" t="s">
+      <c r="A540" s="16" t="s">
         <v>372</v>
       </c>
       <c r="B540" s="7">
@@ -17273,7 +17270,7 @@
       </c>
     </row>
     <row r="541" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A541" s="17" t="s">
+      <c r="A541" s="16" t="s">
         <v>370</v>
       </c>
       <c r="B541" s="7">
@@ -17296,7 +17293,7 @@
       </c>
     </row>
     <row r="542" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A542" s="17" t="s">
+      <c r="A542" s="16" t="s">
         <v>368</v>
       </c>
       <c r="B542" s="7">
@@ -17319,7 +17316,7 @@
       </c>
     </row>
     <row r="543" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A543" s="17" t="s">
+      <c r="A543" s="16" t="s">
         <v>366</v>
       </c>
       <c r="B543" s="7">
@@ -17342,7 +17339,7 @@
       </c>
     </row>
     <row r="544" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A544" s="17" t="s">
+      <c r="A544" s="16" t="s">
         <v>364</v>
       </c>
       <c r="B544" s="7">
@@ -17365,7 +17362,7 @@
       </c>
     </row>
     <row r="545" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A545" s="17" t="s">
+      <c r="A545" s="16" t="s">
         <v>362</v>
       </c>
       <c r="B545" s="7">
@@ -17388,7 +17385,7 @@
       </c>
     </row>
     <row r="546" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A546" s="17" t="s">
+      <c r="A546" s="16" t="s">
         <v>360</v>
       </c>
       <c r="B546" s="7">
@@ -17411,7 +17408,7 @@
       </c>
     </row>
     <row r="547" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A547" s="17" t="s">
+      <c r="A547" s="16" t="s">
         <v>358</v>
       </c>
       <c r="B547" s="7">
@@ -17434,7 +17431,7 @@
       </c>
     </row>
     <row r="548" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A548" s="17" t="s">
+      <c r="A548" s="16" t="s">
         <v>356</v>
       </c>
       <c r="B548" s="7">
@@ -17457,7 +17454,7 @@
       </c>
     </row>
     <row r="549" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A549" s="17" t="s">
+      <c r="A549" s="16" t="s">
         <v>355</v>
       </c>
       <c r="B549" s="7">
@@ -17480,7 +17477,7 @@
       </c>
     </row>
     <row r="550" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A550" s="17" t="s">
+      <c r="A550" s="16" t="s">
         <v>353</v>
       </c>
       <c r="B550" s="7">
@@ -17503,7 +17500,7 @@
       </c>
     </row>
     <row r="551" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A551" s="17" t="s">
+      <c r="A551" s="16" t="s">
         <v>351</v>
       </c>
       <c r="B551" s="7">
@@ -17526,7 +17523,7 @@
       </c>
     </row>
     <row r="552" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A552" s="17" t="s">
+      <c r="A552" s="16" t="s">
         <v>349</v>
       </c>
       <c r="B552" s="7">
@@ -17549,7 +17546,7 @@
       </c>
     </row>
     <row r="553" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A553" s="17" t="s">
+      <c r="A553" s="16" t="s">
         <v>347</v>
       </c>
       <c r="B553" s="7">
@@ -17572,7 +17569,7 @@
       </c>
     </row>
     <row r="554" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A554" s="17" t="s">
+      <c r="A554" s="16" t="s">
         <v>345</v>
       </c>
       <c r="B554" s="7">
@@ -17595,7 +17592,7 @@
       </c>
     </row>
     <row r="555" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A555" s="17" t="s">
+      <c r="A555" s="16" t="s">
         <v>344</v>
       </c>
       <c r="B555" s="7">
@@ -17618,7 +17615,7 @@
       </c>
     </row>
     <row r="556" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A556" s="17" t="s">
+      <c r="A556" s="16" t="s">
         <v>342</v>
       </c>
       <c r="B556" s="7">
@@ -17641,7 +17638,7 @@
       </c>
     </row>
     <row r="557" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A557" s="17" t="s">
+      <c r="A557" s="16" t="s">
         <v>341</v>
       </c>
       <c r="B557" s="7">
@@ -17664,7 +17661,7 @@
       </c>
     </row>
     <row r="558" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A558" s="17" t="s">
+      <c r="A558" s="16" t="s">
         <v>340</v>
       </c>
       <c r="B558" s="7">
@@ -17687,7 +17684,7 @@
       </c>
     </row>
     <row r="559" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A559" s="17" t="s">
+      <c r="A559" s="16" t="s">
         <v>338</v>
       </c>
       <c r="B559" s="7">
@@ -17710,7 +17707,7 @@
       </c>
     </row>
     <row r="560" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A560" s="17" t="s">
+      <c r="A560" s="16" t="s">
         <v>337</v>
       </c>
       <c r="B560" s="7">
@@ -17733,7 +17730,7 @@
       </c>
     </row>
     <row r="561" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A561" s="17" t="s">
+      <c r="A561" s="16" t="s">
         <v>335</v>
       </c>
       <c r="B561" s="7">
@@ -17756,7 +17753,7 @@
       </c>
     </row>
     <row r="562" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A562" s="17" t="s">
+      <c r="A562" s="16" t="s">
         <v>333</v>
       </c>
       <c r="B562" s="7">
@@ -17779,7 +17776,7 @@
       </c>
     </row>
     <row r="563" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A563" s="17" t="s">
+      <c r="A563" s="16" t="s">
         <v>331</v>
       </c>
       <c r="B563" s="7">
@@ -17802,7 +17799,7 @@
       </c>
     </row>
     <row r="564" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A564" s="17" t="s">
+      <c r="A564" s="16" t="s">
         <v>329</v>
       </c>
       <c r="B564" s="7">
@@ -17825,7 +17822,7 @@
       </c>
     </row>
     <row r="565" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A565" s="17" t="s">
+      <c r="A565" s="16" t="s">
         <v>327</v>
       </c>
       <c r="B565" s="7">
@@ -17848,7 +17845,7 @@
       </c>
     </row>
     <row r="566" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A566" s="17" t="s">
+      <c r="A566" s="16" t="s">
         <v>325</v>
       </c>
       <c r="B566" s="7">
@@ -17871,7 +17868,7 @@
       </c>
     </row>
     <row r="567" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A567" s="17" t="s">
+      <c r="A567" s="16" t="s">
         <v>323</v>
       </c>
       <c r="B567" s="7">
@@ -17894,7 +17891,7 @@
       </c>
     </row>
     <row r="568" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A568" s="17" t="s">
+      <c r="A568" s="16" t="s">
         <v>321</v>
       </c>
       <c r="B568" s="7">
@@ -17917,7 +17914,7 @@
       </c>
     </row>
     <row r="569" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A569" s="17" t="s">
+      <c r="A569" s="16" t="s">
         <v>319</v>
       </c>
       <c r="B569" s="7">
@@ -17940,7 +17937,7 @@
       </c>
     </row>
     <row r="570" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A570" s="17" t="s">
+      <c r="A570" s="16" t="s">
         <v>318</v>
       </c>
       <c r="B570" s="7">
@@ -17963,7 +17960,7 @@
       </c>
     </row>
     <row r="571" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A571" s="17" t="s">
+      <c r="A571" s="16" t="s">
         <v>317</v>
       </c>
       <c r="B571" s="7">
@@ -17986,7 +17983,7 @@
       </c>
     </row>
     <row r="572" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A572" s="17" t="s">
+      <c r="A572" s="16" t="s">
         <v>315</v>
       </c>
       <c r="B572" s="7">
@@ -18009,7 +18006,7 @@
       </c>
     </row>
     <row r="573" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A573" s="17" t="s">
+      <c r="A573" s="16" t="s">
         <v>313</v>
       </c>
       <c r="B573" s="7">
@@ -18032,7 +18029,7 @@
       </c>
     </row>
     <row r="574" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A574" s="17" t="s">
+      <c r="A574" s="16" t="s">
         <v>312</v>
       </c>
       <c r="B574" s="7">
@@ -18055,7 +18052,7 @@
       </c>
     </row>
     <row r="575" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A575" s="17" t="s">
+      <c r="A575" s="16" t="s">
         <v>310</v>
       </c>
       <c r="B575" s="7">
@@ -18078,7 +18075,7 @@
       </c>
     </row>
     <row r="576" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A576" s="17" t="s">
+      <c r="A576" s="16" t="s">
         <v>309</v>
       </c>
       <c r="B576" s="7">
@@ -18101,7 +18098,7 @@
       </c>
     </row>
     <row r="577" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A577" s="17" t="s">
+      <c r="A577" s="16" t="s">
         <v>307</v>
       </c>
       <c r="B577" s="7">
@@ -18124,7 +18121,7 @@
       </c>
     </row>
     <row r="578" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A578" s="17" t="s">
+      <c r="A578" s="16" t="s">
         <v>305</v>
       </c>
       <c r="B578" s="7">
@@ -18147,7 +18144,7 @@
       </c>
     </row>
     <row r="579" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A579" s="17" t="s">
+      <c r="A579" s="16" t="s">
         <v>303</v>
       </c>
       <c r="B579" s="7">
@@ -18170,7 +18167,7 @@
       </c>
     </row>
     <row r="580" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A580" s="17" t="s">
+      <c r="A580" s="16" t="s">
         <v>301</v>
       </c>
       <c r="B580" s="7">
@@ -18193,7 +18190,7 @@
       </c>
     </row>
     <row r="581" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A581" s="17" t="s">
+      <c r="A581" s="16" t="s">
         <v>299</v>
       </c>
       <c r="B581" s="7">
@@ -18216,7 +18213,7 @@
       </c>
     </row>
     <row r="582" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A582" s="17" t="s">
+      <c r="A582" s="16" t="s">
         <v>298</v>
       </c>
       <c r="B582" s="7">
@@ -18239,7 +18236,7 @@
       </c>
     </row>
     <row r="583" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A583" s="17" t="s">
+      <c r="A583" s="16" t="s">
         <v>296</v>
       </c>
       <c r="B583" s="7">
@@ -18262,7 +18259,7 @@
       </c>
     </row>
     <row r="584" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A584" s="17" t="s">
+      <c r="A584" s="16" t="s">
         <v>295</v>
       </c>
       <c r="B584" s="7">
@@ -18285,7 +18282,7 @@
       </c>
     </row>
     <row r="585" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A585" s="17" t="s">
+      <c r="A585" s="16" t="s">
         <v>293</v>
       </c>
       <c r="B585" s="7">
@@ -18308,7 +18305,7 @@
       </c>
     </row>
     <row r="586" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A586" s="17" t="s">
+      <c r="A586" s="16" t="s">
         <v>291</v>
       </c>
       <c r="B586" s="7">
@@ -18331,7 +18328,7 @@
       </c>
     </row>
     <row r="587" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A587" s="17" t="s">
+      <c r="A587" s="16" t="s">
         <v>289</v>
       </c>
       <c r="B587" s="7">
@@ -18354,7 +18351,7 @@
       </c>
     </row>
     <row r="588" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A588" s="17" t="s">
+      <c r="A588" s="16" t="s">
         <v>287</v>
       </c>
       <c r="B588" s="7">
@@ -18377,7 +18374,7 @@
       </c>
     </row>
     <row r="589" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A589" s="17" t="s">
+      <c r="A589" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B589" s="7">
@@ -18400,7 +18397,7 @@
       </c>
     </row>
     <row r="590" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A590" s="17" t="s">
+      <c r="A590" s="16" t="s">
         <v>283</v>
       </c>
       <c r="B590" s="7">
@@ -18423,7 +18420,7 @@
       </c>
     </row>
     <row r="591" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A591" s="17" t="s">
+      <c r="A591" s="16" t="s">
         <v>281</v>
       </c>
       <c r="B591" s="7">
@@ -18446,7 +18443,7 @@
       </c>
     </row>
     <row r="592" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A592" s="17" t="s">
+      <c r="A592" s="16" t="s">
         <v>279</v>
       </c>
       <c r="B592" s="7">
@@ -18469,7 +18466,7 @@
       </c>
     </row>
     <row r="593" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A593" s="17" t="s">
+      <c r="A593" s="16" t="s">
         <v>277</v>
       </c>
       <c r="B593" s="7">
@@ -18492,7 +18489,7 @@
       </c>
     </row>
     <row r="594" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A594" s="17" t="s">
+      <c r="A594" s="16" t="s">
         <v>275</v>
       </c>
       <c r="B594" s="7">
@@ -18515,7 +18512,7 @@
       </c>
     </row>
     <row r="595" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A595" s="17" t="s">
+      <c r="A595" s="16" t="s">
         <v>273</v>
       </c>
       <c r="B595" s="7">
@@ -18538,7 +18535,7 @@
       </c>
     </row>
     <row r="596" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A596" s="17" t="s">
+      <c r="A596" s="16" t="s">
         <v>271</v>
       </c>
       <c r="B596" s="7">
@@ -18561,7 +18558,7 @@
       </c>
     </row>
     <row r="597" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A597" s="17" t="s">
+      <c r="A597" s="16" t="s">
         <v>269</v>
       </c>
       <c r="B597" s="7">
@@ -18584,7 +18581,7 @@
       </c>
     </row>
     <row r="598" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A598" s="17" t="s">
+      <c r="A598" s="16" t="s">
         <v>267</v>
       </c>
       <c r="B598" s="7">
@@ -18607,7 +18604,7 @@
       </c>
     </row>
     <row r="599" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A599" s="17" t="s">
+      <c r="A599" s="16" t="s">
         <v>265</v>
       </c>
       <c r="B599" s="7">
@@ -18630,7 +18627,7 @@
       </c>
     </row>
     <row r="600" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A600" s="17" t="s">
+      <c r="A600" s="16" t="s">
         <v>263</v>
       </c>
       <c r="B600" s="7">
@@ -18653,7 +18650,7 @@
       </c>
     </row>
     <row r="601" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A601" s="17" t="s">
+      <c r="A601" s="16" t="s">
         <v>261</v>
       </c>
       <c r="B601" s="7">
@@ -18676,7 +18673,7 @@
       </c>
     </row>
     <row r="602" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A602" s="17" t="s">
+      <c r="A602" s="16" t="s">
         <v>259</v>
       </c>
       <c r="B602" s="7">
@@ -18699,7 +18696,7 @@
       </c>
     </row>
     <row r="603" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A603" s="17" t="s">
+      <c r="A603" s="16" t="s">
         <v>257</v>
       </c>
       <c r="B603" s="7">
@@ -18722,7 +18719,7 @@
       </c>
     </row>
     <row r="604" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A604" s="17" t="s">
+      <c r="A604" s="16" t="s">
         <v>255</v>
       </c>
       <c r="B604" s="7">
@@ -18745,7 +18742,7 @@
       </c>
     </row>
     <row r="605" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A605" s="17" t="s">
+      <c r="A605" s="16" t="s">
         <v>253</v>
       </c>
       <c r="B605" s="7">
@@ -18768,7 +18765,7 @@
       </c>
     </row>
     <row r="606" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A606" s="17" t="s">
+      <c r="A606" s="16" t="s">
         <v>251</v>
       </c>
       <c r="B606" s="7">
@@ -18791,7 +18788,7 @@
       </c>
     </row>
     <row r="607" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A607" s="17" t="s">
+      <c r="A607" s="16" t="s">
         <v>249</v>
       </c>
       <c r="B607" s="7">
@@ -18814,7 +18811,7 @@
       </c>
     </row>
     <row r="608" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A608" s="17" t="s">
+      <c r="A608" s="16" t="s">
         <v>247</v>
       </c>
       <c r="B608" s="7">
@@ -18837,7 +18834,7 @@
       </c>
     </row>
     <row r="609" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A609" s="17" t="s">
+      <c r="A609" s="16" t="s">
         <v>245</v>
       </c>
       <c r="B609" s="7">
@@ -18860,7 +18857,7 @@
       </c>
     </row>
     <row r="610" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A610" s="17" t="s">
+      <c r="A610" s="16" t="s">
         <v>243</v>
       </c>
       <c r="B610" s="7">
@@ -18883,7 +18880,7 @@
       </c>
     </row>
     <row r="611" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A611" s="17" t="s">
+      <c r="A611" s="16" t="s">
         <v>241</v>
       </c>
       <c r="B611" s="7">
@@ -18906,7 +18903,7 @@
       </c>
     </row>
     <row r="612" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A612" s="17" t="s">
+      <c r="A612" s="16" t="s">
         <v>239</v>
       </c>
       <c r="B612" s="7">
@@ -18929,7 +18926,7 @@
       </c>
     </row>
     <row r="613" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A613" s="17" t="s">
+      <c r="A613" s="16" t="s">
         <v>237</v>
       </c>
       <c r="B613" s="7">
@@ -18952,7 +18949,7 @@
       </c>
     </row>
     <row r="614" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A614" s="17" t="s">
+      <c r="A614" s="16" t="s">
         <v>235</v>
       </c>
       <c r="B614" s="7">
@@ -18975,7 +18972,7 @@
       </c>
     </row>
     <row r="615" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A615" s="17" t="s">
+      <c r="A615" s="16" t="s">
         <v>233</v>
       </c>
       <c r="B615" s="7">
@@ -18998,7 +18995,7 @@
       </c>
     </row>
     <row r="616" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A616" s="17" t="s">
+      <c r="A616" s="16" t="s">
         <v>232</v>
       </c>
       <c r="B616" s="7">
@@ -19021,7 +19018,7 @@
       </c>
     </row>
     <row r="617" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A617" s="17" t="s">
+      <c r="A617" s="16" t="s">
         <v>230</v>
       </c>
       <c r="B617" s="7">
@@ -19044,7 +19041,7 @@
       </c>
     </row>
     <row r="618" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A618" s="17" t="s">
+      <c r="A618" s="16" t="s">
         <v>228</v>
       </c>
       <c r="B618" s="7">
@@ -19067,7 +19064,7 @@
       </c>
     </row>
     <row r="619" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A619" s="17" t="s">
+      <c r="A619" s="16" t="s">
         <v>226</v>
       </c>
       <c r="B619" s="7">
@@ -19090,7 +19087,7 @@
       </c>
     </row>
     <row r="620" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A620" s="17" t="s">
+      <c r="A620" s="16" t="s">
         <v>224</v>
       </c>
       <c r="B620" s="7">
@@ -19113,7 +19110,7 @@
       </c>
     </row>
     <row r="621" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A621" s="17" t="s">
+      <c r="A621" s="16" t="s">
         <v>223</v>
       </c>
       <c r="B621" s="7">
@@ -19136,7 +19133,7 @@
       </c>
     </row>
     <row r="622" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A622" s="17" t="s">
+      <c r="A622" s="16" t="s">
         <v>222</v>
       </c>
       <c r="B622" s="7">
@@ -19159,7 +19156,7 @@
       </c>
     </row>
     <row r="623" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A623" s="17" t="s">
+      <c r="A623" s="16" t="s">
         <v>220</v>
       </c>
       <c r="B623" s="7">
@@ -19182,7 +19179,7 @@
       </c>
     </row>
     <row r="624" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A624" s="17" t="s">
+      <c r="A624" s="16" t="s">
         <v>218</v>
       </c>
       <c r="B624" s="7">
@@ -19205,7 +19202,7 @@
       </c>
     </row>
     <row r="625" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A625" s="17" t="s">
+      <c r="A625" s="16" t="s">
         <v>217</v>
       </c>
       <c r="B625" s="7">
@@ -19228,7 +19225,7 @@
       </c>
     </row>
     <row r="626" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A626" s="17" t="s">
+      <c r="A626" s="16" t="s">
         <v>216</v>
       </c>
       <c r="B626" s="7">
@@ -19251,7 +19248,7 @@
       </c>
     </row>
     <row r="627" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A627" s="17" t="s">
+      <c r="A627" s="16" t="s">
         <v>214</v>
       </c>
       <c r="B627" s="7">
@@ -19274,7 +19271,7 @@
       </c>
     </row>
     <row r="628" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A628" s="17" t="s">
+      <c r="A628" s="16" t="s">
         <v>212</v>
       </c>
       <c r="B628" s="7">
@@ -19297,7 +19294,7 @@
       </c>
     </row>
     <row r="629" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A629" s="17" t="s">
+      <c r="A629" s="16" t="s">
         <v>210</v>
       </c>
       <c r="B629" s="7">
@@ -19320,7 +19317,7 @@
       </c>
     </row>
     <row r="630" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A630" s="17" t="s">
+      <c r="A630" s="16" t="s">
         <v>208</v>
       </c>
       <c r="B630" s="7">
@@ -19343,7 +19340,7 @@
       </c>
     </row>
     <row r="631" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A631" s="17" t="s">
+      <c r="A631" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B631" s="7">
@@ -19366,7 +19363,7 @@
       </c>
     </row>
     <row r="632" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A632" s="17" t="s">
+      <c r="A632" s="16" t="s">
         <v>205</v>
       </c>
       <c r="B632" s="7">
@@ -19389,7 +19386,7 @@
       </c>
     </row>
     <row r="633" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A633" s="17" t="s">
+      <c r="A633" s="16" t="s">
         <v>203</v>
       </c>
       <c r="B633" s="7">
@@ -19412,7 +19409,7 @@
       </c>
     </row>
     <row r="634" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A634" s="17" t="s">
+      <c r="A634" s="16" t="s">
         <v>201</v>
       </c>
       <c r="B634" s="7">
@@ -19435,7 +19432,7 @@
       </c>
     </row>
     <row r="635" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A635" s="17" t="s">
+      <c r="A635" s="16" t="s">
         <v>199</v>
       </c>
       <c r="B635" s="7">
@@ -19458,7 +19455,7 @@
       </c>
     </row>
     <row r="636" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A636" s="17" t="s">
+      <c r="A636" s="16" t="s">
         <v>198</v>
       </c>
       <c r="B636" s="7">
@@ -19481,7 +19478,7 @@
       </c>
     </row>
     <row r="637" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A637" s="17" t="s">
+      <c r="A637" s="16" t="s">
         <v>197</v>
       </c>
       <c r="B637" s="7">
@@ -19504,7 +19501,7 @@
       </c>
     </row>
     <row r="638" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A638" s="17" t="s">
+      <c r="A638" s="16" t="s">
         <v>195</v>
       </c>
       <c r="B638" s="7">
@@ -19527,7 +19524,7 @@
       </c>
     </row>
     <row r="639" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A639" s="17" t="s">
+      <c r="A639" s="16" t="s">
         <v>193</v>
       </c>
       <c r="B639" s="7">
@@ -19550,7 +19547,7 @@
       </c>
     </row>
     <row r="640" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A640" s="17" t="s">
+      <c r="A640" s="16" t="s">
         <v>191</v>
       </c>
       <c r="B640" s="7">
@@ -19573,7 +19570,7 @@
       </c>
     </row>
     <row r="641" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A641" s="17" t="s">
+      <c r="A641" s="16" t="s">
         <v>189</v>
       </c>
       <c r="B641" s="7">
@@ -19596,7 +19593,7 @@
       </c>
     </row>
     <row r="642" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A642" s="17" t="s">
+      <c r="A642" s="16" t="s">
         <v>187</v>
       </c>
       <c r="B642" s="7">
@@ -19619,7 +19616,7 @@
       </c>
     </row>
     <row r="643" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A643" s="17" t="s">
+      <c r="A643" s="16" t="s">
         <v>185</v>
       </c>
       <c r="B643" s="7">
@@ -19642,7 +19639,7 @@
       </c>
     </row>
     <row r="644" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A644" s="17" t="s">
+      <c r="A644" s="16" t="s">
         <v>184</v>
       </c>
       <c r="B644" s="7">
@@ -19665,7 +19662,7 @@
       </c>
     </row>
     <row r="645" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A645" s="17" t="s">
+      <c r="A645" s="16" t="s">
         <v>182</v>
       </c>
       <c r="B645" s="7">
@@ -19688,7 +19685,7 @@
       </c>
     </row>
     <row r="646" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A646" s="17" t="s">
+      <c r="A646" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B646" s="7">
@@ -19711,7 +19708,7 @@
       </c>
     </row>
     <row r="647" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A647" s="17" t="s">
+      <c r="A647" s="16" t="s">
         <v>178</v>
       </c>
       <c r="B647" s="7">
@@ -19734,7 +19731,7 @@
       </c>
     </row>
     <row r="648" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A648" s="17" t="s">
+      <c r="A648" s="16" t="s">
         <v>176</v>
       </c>
       <c r="B648" s="7">
@@ -19757,7 +19754,7 @@
       </c>
     </row>
     <row r="649" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A649" s="17" t="s">
+      <c r="A649" s="16" t="s">
         <v>174</v>
       </c>
       <c r="B649" s="7">
@@ -19780,7 +19777,7 @@
       </c>
     </row>
     <row r="650" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A650" s="17" t="s">
+      <c r="A650" s="16" t="s">
         <v>172</v>
       </c>
       <c r="B650" s="7">
@@ -19803,7 +19800,7 @@
       </c>
     </row>
     <row r="651" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A651" s="17" t="s">
+      <c r="A651" s="16" t="s">
         <v>170</v>
       </c>
       <c r="B651" s="7">
@@ -19826,7 +19823,7 @@
       </c>
     </row>
     <row r="652" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A652" s="17" t="s">
+      <c r="A652" s="16" t="s">
         <v>168</v>
       </c>
       <c r="B652" s="7">
@@ -19849,7 +19846,7 @@
       </c>
     </row>
     <row r="653" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A653" s="17" t="s">
+      <c r="A653" s="16" t="s">
         <v>166</v>
       </c>
       <c r="B653" s="7">
@@ -19872,7 +19869,7 @@
       </c>
     </row>
     <row r="654" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A654" s="17" t="s">
+      <c r="A654" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B654" s="7">
@@ -19895,7 +19892,7 @@
       </c>
     </row>
     <row r="655" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A655" s="17" t="s">
+      <c r="A655" s="16" t="s">
         <v>162</v>
       </c>
       <c r="B655" s="7">
@@ -19918,7 +19915,7 @@
       </c>
     </row>
     <row r="656" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A656" s="17" t="s">
+      <c r="A656" s="16" t="s">
         <v>160</v>
       </c>
       <c r="B656" s="7">
@@ -19941,7 +19938,7 @@
       </c>
     </row>
     <row r="657" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A657" s="17" t="s">
+      <c r="A657" s="16" t="s">
         <v>158</v>
       </c>
       <c r="B657" s="7">
@@ -19964,7 +19961,7 @@
       </c>
     </row>
     <row r="658" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A658" s="17" t="s">
+      <c r="A658" s="16" t="s">
         <v>156</v>
       </c>
       <c r="B658" s="7">
@@ -19987,7 +19984,7 @@
       </c>
     </row>
     <row r="659" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A659" s="17" t="s">
+      <c r="A659" s="16" t="s">
         <v>155</v>
       </c>
       <c r="B659" s="7">
@@ -20010,7 +20007,7 @@
       </c>
     </row>
     <row r="660" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A660" s="17" t="s">
+      <c r="A660" s="16" t="s">
         <v>153</v>
       </c>
       <c r="B660" s="7">
@@ -20033,7 +20030,7 @@
       </c>
     </row>
     <row r="661" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A661" s="17" t="s">
+      <c r="A661" s="16" t="s">
         <v>151</v>
       </c>
       <c r="B661" s="7">
@@ -20056,7 +20053,7 @@
       </c>
     </row>
     <row r="662" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A662" s="17" t="s">
+      <c r="A662" s="16" t="s">
         <v>149</v>
       </c>
       <c r="B662" s="7">
@@ -20079,7 +20076,7 @@
       </c>
     </row>
     <row r="663" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A663" s="17" t="s">
+      <c r="A663" s="16" t="s">
         <v>147</v>
       </c>
       <c r="B663" s="7">
@@ -20102,7 +20099,7 @@
       </c>
     </row>
     <row r="664" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A664" s="17" t="s">
+      <c r="A664" s="16" t="s">
         <v>145</v>
       </c>
       <c r="B664" s="7">
@@ -20125,7 +20122,7 @@
       </c>
     </row>
     <row r="665" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A665" s="17" t="s">
+      <c r="A665" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B665" s="7">
@@ -20148,7 +20145,7 @@
       </c>
     </row>
     <row r="666" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A666" s="17" t="s">
+      <c r="A666" s="16" t="s">
         <v>141</v>
       </c>
       <c r="B666" s="7">
@@ -20171,7 +20168,7 @@
       </c>
     </row>
     <row r="667" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A667" s="17" t="s">
+      <c r="A667" s="16" t="s">
         <v>139</v>
       </c>
       <c r="B667" s="7">
@@ -20194,7 +20191,7 @@
       </c>
     </row>
     <row r="668" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A668" s="17" t="s">
+      <c r="A668" s="16" t="s">
         <v>137</v>
       </c>
       <c r="B668" s="7">
@@ -20217,7 +20214,7 @@
       </c>
     </row>
     <row r="669" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A669" s="17" t="s">
+      <c r="A669" s="16" t="s">
         <v>135</v>
       </c>
       <c r="B669" s="7">
@@ -20240,7 +20237,7 @@
       </c>
     </row>
     <row r="670" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A670" s="17" t="s">
+      <c r="A670" s="16" t="s">
         <v>133</v>
       </c>
       <c r="B670" s="7">
@@ -20263,7 +20260,7 @@
       </c>
     </row>
     <row r="671" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A671" s="17" t="s">
+      <c r="A671" s="16" t="s">
         <v>131</v>
       </c>
       <c r="B671" s="7">
@@ -20286,7 +20283,7 @@
       </c>
     </row>
     <row r="672" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A672" s="17" t="s">
+      <c r="A672" s="16" t="s">
         <v>129</v>
       </c>
       <c r="B672" s="7">
@@ -20309,7 +20306,7 @@
       </c>
     </row>
     <row r="673" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A673" s="17" t="s">
+      <c r="A673" s="16" t="s">
         <v>127</v>
       </c>
       <c r="B673" s="7">
@@ -20332,7 +20329,7 @@
       </c>
     </row>
     <row r="674" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A674" s="17" t="s">
+      <c r="A674" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B674" s="7">
@@ -20355,7 +20352,7 @@
       </c>
     </row>
     <row r="675" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A675" s="17" t="s">
+      <c r="A675" s="16" t="s">
         <v>123</v>
       </c>
       <c r="B675" s="7">
@@ -20378,7 +20375,7 @@
       </c>
     </row>
     <row r="676" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A676" s="17" t="s">
+      <c r="A676" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B676" s="7">
@@ -20401,7 +20398,7 @@
       </c>
     </row>
     <row r="677" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A677" s="17" t="s">
+      <c r="A677" s="16" t="s">
         <v>119</v>
       </c>
       <c r="B677" s="7">
@@ -20424,7 +20421,7 @@
       </c>
     </row>
     <row r="678" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A678" s="17" t="s">
+      <c r="A678" s="16" t="s">
         <v>117</v>
       </c>
       <c r="B678" s="7">
@@ -20447,7 +20444,7 @@
       </c>
     </row>
     <row r="679" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A679" s="17" t="s">
+      <c r="A679" s="16" t="s">
         <v>115</v>
       </c>
       <c r="B679" s="7">
@@ -20470,7 +20467,7 @@
       </c>
     </row>
     <row r="680" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A680" s="17" t="s">
+      <c r="A680" s="16" t="s">
         <v>113</v>
       </c>
       <c r="B680" s="7">
@@ -20493,7 +20490,7 @@
       </c>
     </row>
     <row r="681" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A681" s="17" t="s">
+      <c r="A681" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B681" s="7">
@@ -20516,7 +20513,7 @@
       </c>
     </row>
     <row r="682" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A682" s="17" t="s">
+      <c r="A682" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B682" s="7">
@@ -20539,7 +20536,7 @@
       </c>
     </row>
     <row r="683" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A683" s="17" t="s">
+      <c r="A683" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B683" s="7">
@@ -20562,7 +20559,7 @@
       </c>
     </row>
     <row r="684" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A684" s="17" t="s">
+      <c r="A684" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B684" s="7">
@@ -20585,7 +20582,7 @@
       </c>
     </row>
     <row r="685" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A685" s="17" t="s">
+      <c r="A685" s="16" t="s">
         <v>103</v>
       </c>
       <c r="B685" s="7">
@@ -20608,7 +20605,7 @@
       </c>
     </row>
     <row r="686" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A686" s="17" t="s">
+      <c r="A686" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B686" s="7">
@@ -20631,7 +20628,7 @@
       </c>
     </row>
     <row r="687" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A687" s="17" t="s">
+      <c r="A687" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B687" s="7">
@@ -20654,7 +20651,7 @@
       </c>
     </row>
     <row r="688" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A688" s="17" t="s">
+      <c r="A688" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B688" s="7">
@@ -20677,7 +20674,7 @@
       </c>
     </row>
     <row r="689" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A689" s="17" t="s">
+      <c r="A689" s="16" t="s">
         <v>95</v>
       </c>
       <c r="B689" s="7">
@@ -20700,7 +20697,7 @@
       </c>
     </row>
     <row r="690" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A690" s="17" t="s">
+      <c r="A690" s="16" t="s">
         <v>93</v>
       </c>
       <c r="B690" s="7">
@@ -20723,7 +20720,7 @@
       </c>
     </row>
     <row r="691" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A691" s="17" t="s">
+      <c r="A691" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B691" s="7">
@@ -20746,7 +20743,7 @@
       </c>
     </row>
     <row r="692" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A692" s="17" t="s">
+      <c r="A692" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B692" s="7">
@@ -20769,7 +20766,7 @@
       </c>
     </row>
     <row r="693" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A693" s="17" t="s">
+      <c r="A693" s="16" t="s">
         <v>87</v>
       </c>
       <c r="B693" s="7">
@@ -20792,7 +20789,7 @@
       </c>
     </row>
     <row r="694" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A694" s="17" t="s">
+      <c r="A694" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B694" s="7">
@@ -20815,7 +20812,7 @@
       </c>
     </row>
     <row r="695" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A695" s="17" t="s">
+      <c r="A695" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B695" s="7">
@@ -20838,7 +20835,7 @@
       </c>
     </row>
     <row r="696" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A696" s="17" t="s">
+      <c r="A696" s="16" t="s">
         <v>81</v>
       </c>
       <c r="B696" s="7">
@@ -20861,7 +20858,7 @@
       </c>
     </row>
     <row r="697" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A697" s="17" t="s">
+      <c r="A697" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B697" s="7">
@@ -20884,7 +20881,7 @@
       </c>
     </row>
     <row r="698" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A698" s="17" t="s">
+      <c r="A698" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B698" s="7">
@@ -20907,7 +20904,7 @@
       </c>
     </row>
     <row r="699" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A699" s="17" t="s">
+      <c r="A699" s="16" t="s">
         <v>75</v>
       </c>
       <c r="B699" s="7">
@@ -20930,7 +20927,7 @@
       </c>
     </row>
     <row r="700" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A700" s="17" t="s">
+      <c r="A700" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B700" s="7">
@@ -20953,7 +20950,7 @@
       </c>
     </row>
     <row r="701" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A701" s="17" t="s">
+      <c r="A701" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B701" s="7">
@@ -20976,7 +20973,7 @@
       </c>
     </row>
     <row r="702" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A702" s="17" t="s">
+      <c r="A702" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B702" s="7">
@@ -20999,7 +20996,7 @@
       </c>
     </row>
     <row r="703" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A703" s="17" t="s">
+      <c r="A703" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B703" s="7">
@@ -21022,7 +21019,7 @@
       </c>
     </row>
     <row r="704" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A704" s="17" t="s">
+      <c r="A704" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B704" s="7">
@@ -21045,7 +21042,7 @@
       </c>
     </row>
     <row r="705" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A705" s="17" t="s">
+      <c r="A705" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B705" s="7">
@@ -21068,7 +21065,7 @@
       </c>
     </row>
     <row r="706" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A706" s="17" t="s">
+      <c r="A706" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B706" s="7">
@@ -21091,7 +21088,7 @@
       </c>
     </row>
     <row r="707" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A707" s="17" t="s">
+      <c r="A707" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B707" s="7">
@@ -21114,7 +21111,7 @@
       </c>
     </row>
     <row r="708" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A708" s="17" t="s">
+      <c r="A708" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B708" s="7">
@@ -21137,7 +21134,7 @@
       </c>
     </row>
     <row r="709" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A709" s="17" t="s">
+      <c r="A709" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B709" s="7">
@@ -21160,7 +21157,7 @@
       </c>
     </row>
     <row r="710" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A710" s="17" t="s">
+      <c r="A710" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B710" s="7">
@@ -21183,7 +21180,7 @@
       </c>
     </row>
     <row r="711" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A711" s="17" t="s">
+      <c r="A711" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B711" s="7">
@@ -21206,7 +21203,7 @@
       </c>
     </row>
     <row r="712" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A712" s="17" t="s">
+      <c r="A712" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B712" s="7">
@@ -21229,7 +21226,7 @@
       </c>
     </row>
     <row r="713" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A713" s="17" t="s">
+      <c r="A713" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B713" s="7">
@@ -21252,7 +21249,7 @@
       </c>
     </row>
     <row r="714" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A714" s="17" t="s">
+      <c r="A714" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B714" s="7">
@@ -21275,7 +21272,7 @@
       </c>
     </row>
     <row r="715" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A715" s="17" t="s">
+      <c r="A715" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B715" s="7">
@@ -21298,7 +21295,7 @@
       </c>
     </row>
     <row r="716" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A716" s="17" t="s">
+      <c r="A716" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B716" s="7">
@@ -21321,7 +21318,7 @@
       </c>
     </row>
     <row r="717" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A717" s="17" t="s">
+      <c r="A717" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B717" s="7">
@@ -21344,7 +21341,7 @@
       </c>
     </row>
     <row r="718" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A718" s="17" t="s">
+      <c r="A718" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B718" s="7">
@@ -21367,7 +21364,7 @@
       </c>
     </row>
     <row r="719" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A719" s="17" t="s">
+      <c r="A719" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B719" s="7">
@@ -21390,7 +21387,7 @@
       </c>
     </row>
     <row r="720" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A720" s="17" t="s">
+      <c r="A720" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B720" s="7">
@@ -21413,7 +21410,7 @@
       </c>
     </row>
     <row r="721" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A721" s="17" t="s">
+      <c r="A721" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B721" s="7">
@@ -21436,7 +21433,7 @@
       </c>
     </row>
     <row r="722" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A722" s="17" t="s">
+      <c r="A722" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B722" s="7">
@@ -21459,7 +21456,7 @@
       </c>
     </row>
     <row r="723" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A723" s="17" t="s">
+      <c r="A723" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B723" s="7">
@@ -21482,7 +21479,7 @@
       </c>
     </row>
     <row r="724" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A724" s="17" t="s">
+      <c r="A724" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B724" s="7">
@@ -21505,7 +21502,7 @@
       </c>
     </row>
     <row r="725" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A725" s="17" t="s">
+      <c r="A725" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B725" s="7">
@@ -21528,7 +21525,7 @@
       </c>
     </row>
     <row r="726" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A726" s="17" t="s">
+      <c r="A726" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B726" s="7">
@@ -21551,7 +21548,7 @@
       </c>
     </row>
     <row r="727" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A727" s="17" t="s">
+      <c r="A727" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B727" s="7">
@@ -21574,7 +21571,7 @@
       </c>
     </row>
     <row r="728" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A728" s="17" t="s">
+      <c r="A728" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B728" s="7">
@@ -21597,7 +21594,7 @@
       </c>
     </row>
     <row r="729" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A729" s="17" t="s">
+      <c r="A729" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B729" s="7">
@@ -21620,7 +21617,7 @@
       </c>
     </row>
     <row r="730" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A730" s="17" t="s">
+      <c r="A730" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B730" s="7">
@@ -21643,7 +21640,7 @@
       </c>
     </row>
     <row r="731" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A731" s="17" t="s">
+      <c r="A731" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B731" s="7">
@@ -21666,7 +21663,7 @@
       </c>
     </row>
     <row r="732" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A732" s="17" t="s">
+      <c r="A732" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B732" s="7">
@@ -21689,7 +21686,7 @@
       </c>
     </row>
     <row r="733" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A733" s="15" t="s">
+      <c r="A733" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B733" s="7">
